--- a/Mapping FURs and UCs.xlsx
+++ b/Mapping FURs and UCs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fraunhofer.sharepoint.com/sites/TwinEU/Freigegebene Dokumente/WP3 Open Architecture for DT/T3.2/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8121" documentId="13_ncr:1_{3B6C9397-F69C-4DD4-B4FA-0A9C38D34D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D195A29-51FC-4777-A3A8-7F453249C347}"/>
+  <xr:revisionPtr revIDLastSave="8213" documentId="13_ncr:1_{3B6C9397-F69C-4DD4-B4FA-0A9C38D34D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB64D30D-3645-468B-8BA6-276B28642A39}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{1EC336E7-9B8F-4023-BA48-614D005FA557}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{1EC336E7-9B8F-4023-BA48-614D005FA557}"/>
   </bookViews>
   <sheets>
     <sheet name="Ge FURs" sheetId="3" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="594">
   <si>
     <t>Functional Requirements</t>
   </si>
@@ -1410,34 +1410,6 @@
   <si>
     <t xml:space="preserve">Ib07 - 
 DT-based grid maintenance planning activities </t>
-  </si>
-  <si>
-    <t>Ib11 - 
-Long term flexibility in MV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ib13 - 
-Probabilistic cross-border capacity allocation </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ib14 - 
-Cross-border assessment of flexibility and pre-qualification </t>
-  </si>
-  <si>
-    <t>Ib15 - 
-Integration of TSO-DSO-MO-Prosumer market coordination</t>
-  </si>
-  <si>
-    <t>Ib16 - 
-Enhancement of short-circuit models and TSO/DSO information exchange for operational planning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ib17 - 
-DT-endorsed flexible connection grant through the settlement of a Local Flexibility Market to internally balance the production surplus in congestion-creation hours/scenarios. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ib12 - 
-Flex Connections </t>
   </si>
   <si>
     <t>Bg04-T7.4</t>
@@ -1667,10 +1639,6 @@
     <t>1 Hungarian UC is missing description, very little information</t>
   </si>
   <si>
-    <t>HU01 DT2 -
-Co-optimizing the energy and balancing capacity market coupling with dynamic flow-based auction</t>
-  </si>
-  <si>
     <t>8 unvalidated FURs</t>
   </si>
   <si>
@@ -1855,13 +1823,172 @@
   </si>
   <si>
     <t>376 validated FURs, plus 7+15+8 not validated FURs</t>
+  </si>
+  <si>
+    <t>If you were using the old numbering, this one was erased from the list</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ib11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">08 </t>
+    </r>
+  </si>
+  <si>
+    <t>Ib08 - 
+Long term flexibility in MV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ib10 - 
+Probabilistic cross-border capacity allocation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ib11 - 
+Cross-border assessment of flexibility and pre-qualification </t>
+  </si>
+  <si>
+    <t>Ib12 - 
+Integration of TSO-DSO-MO-Prosumer market coordination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ib14 - 
+DT-endorsed flexible connection grant through the settlement of a Local Flexibility Market to internally balance the production surplus in congestion-creation hours/scenarios. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ib09 - 
+Flex Connections </t>
+  </si>
+  <si>
+    <t>Ib13 - 
+Enhancement of short-circuit models and TSO/DSO information exchange for operational planning</t>
+  </si>
+  <si>
+    <t>DT-O&amp;M-07-SLOSUC01-11</t>
+  </si>
+  <si>
+    <t>DT-O&amp;M-07-SLOSUC01-12</t>
+  </si>
+  <si>
+    <t>DT-O&amp;M-07-SLOSUC01-13</t>
+  </si>
+  <si>
+    <t>DT-O&amp;M-07-SLOSUC01-14</t>
+  </si>
+  <si>
+    <t>DT-O&amp;M-07-SLOSUC01-15</t>
+  </si>
+  <si>
+    <t>DT-O&amp;M-07-SLOSUC01-16</t>
+  </si>
+  <si>
+    <t>DT-O&amp;M-07-SLOSUC01-17</t>
+  </si>
+  <si>
+    <t>DT-O&amp;M-07-SLOSUC01-18</t>
+  </si>
+  <si>
+    <t>DT-O&amp;M-07-SLOSUC01-19</t>
+  </si>
+  <si>
+    <t>Power system analysis</t>
+  </si>
+  <si>
+    <t>Power system analysis tool retrieves operational data from SCADA/EMS</t>
+  </si>
+  <si>
+    <t>SLO-SUC-1 - 
+Power system analysis</t>
+  </si>
+  <si>
+    <t>HU03 -
+Co-optimizing the energy and balancing capacity market coupling with dynamic flow-based auction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU02 - 
+Enhanced flow-based capacity calculation for market co-optimization using DLR data  </t>
+  </si>
+  <si>
+    <t>DT-F&amp;OG-02-HU-01</t>
+  </si>
+  <si>
+    <t>DT-F&amp;OG-02-HU-02</t>
+  </si>
+  <si>
+    <t>DT-F&amp;OG-02-HU-03</t>
+  </si>
+  <si>
+    <t>DT-F&amp;OG-02-HU-04</t>
+  </si>
+  <si>
+    <t>DT-F&amp;OG-02-HU-05</t>
+  </si>
+  <si>
+    <t>DT-F&amp;OG-02-HU-06</t>
+  </si>
+  <si>
+    <t>DT-F&amp;OG-02-HU-07</t>
+  </si>
+  <si>
+    <t>DT-F&amp;OG-02-HU-08</t>
+  </si>
+  <si>
+    <t>DT-F&amp;OG-02-HU-09</t>
+  </si>
+  <si>
+    <t>DT-F&amp;OG-02-HU-10</t>
+  </si>
+  <si>
+    <t>DT-F&amp;OG-02-HU-11</t>
+  </si>
+  <si>
+    <t>DT-F&amp;OG-02-HU-12</t>
+  </si>
+  <si>
+    <t>DT-F&amp;OG-02-HU-13</t>
+  </si>
+  <si>
+    <t>DT-F&amp;OG-02-HU-14</t>
+  </si>
+  <si>
+    <t>DT-F&amp;OG-02-HU-15</t>
+  </si>
+  <si>
+    <t>DT-F&amp;OG-02-HU-16</t>
+  </si>
+  <si>
+    <t>DT-F&amp;OG-02-HU-17</t>
+  </si>
+  <si>
+    <t>DT-F&amp;OG-02-HU-18</t>
+  </si>
+  <si>
+    <t>DT-F&amp;OG-02-HU-19</t>
+  </si>
+  <si>
+    <t>10 unvalidated FURs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1916,6 +2043,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1954,7 +2101,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2042,13 +2189,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2071,9 +2246,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2115,8 +2287,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2142,6 +2314,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2151,9 +2326,19 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
@@ -2492,13 +2677,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C7ADB2-53E5-47AD-BFCB-9AD8A61E485B}">
   <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C89" sqref="A3:C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.36328125" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
     <col min="2" max="2" width="26.1796875" customWidth="1"/>
     <col min="3" max="3" width="20.81640625" customWidth="1"/>
   </cols>
@@ -2507,21 +2692,21 @@
       <c r="C1" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
         <v>417</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>428</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2529,50 +2714,50 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="34"/>
-      <c r="B11" s="36" t="s">
+      <c r="A11" s="33"/>
+      <c r="B11" s="35" t="s">
         <v>429</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -2580,85 +2765,85 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="34"/>
-      <c r="B22" s="35"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="34"/>
-      <c r="B23" s="36" t="s">
+      <c r="A23" s="33"/>
+      <c r="B23" s="35" t="s">
         <v>430</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -2666,99 +2851,99 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
       <c r="C34" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="34"/>
-      <c r="B36" s="35"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="34"/>
       <c r="C36" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="34"/>
-      <c r="B37" s="36" t="s">
+      <c r="A37" s="33"/>
+      <c r="B37" s="35" t="s">
         <v>431</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2766,78 +2951,78 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="34"/>
-      <c r="B38" s="37"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="34"/>
-      <c r="B39" s="37"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="34"/>
-      <c r="B40" s="37"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="34"/>
-      <c r="B41" s="37"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="36"/>
       <c r="C41" s="4" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="34"/>
-      <c r="B42" s="37"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="36"/>
       <c r="C42" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="34"/>
-      <c r="B43" s="37"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="36"/>
       <c r="C43" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="34"/>
-      <c r="B44" s="37"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="36"/>
       <c r="C44" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="34"/>
-      <c r="B45" s="37"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="36"/>
       <c r="C45" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="34"/>
-      <c r="B46" s="37"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="36"/>
       <c r="C46" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="34"/>
-      <c r="B47" s="38"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="37"/>
       <c r="C47" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="34"/>
-      <c r="B48" s="36" t="s">
+      <c r="A48" s="33"/>
+      <c r="B48" s="35" t="s">
         <v>432</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -2845,85 +3030,85 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="34"/>
-      <c r="B49" s="34"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
       <c r="C49" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="34"/>
-      <c r="B50" s="34"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
       <c r="C50" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="34"/>
-      <c r="B51" s="34"/>
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
       <c r="C51" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="34"/>
-      <c r="B52" s="34"/>
+      <c r="A52" s="33"/>
+      <c r="B52" s="33"/>
       <c r="C52" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="34"/>
-      <c r="B53" s="34"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
       <c r="C53" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="34"/>
-      <c r="B54" s="34"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
       <c r="C54" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="34"/>
-      <c r="B55" s="34"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="33"/>
       <c r="C55" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="34"/>
-      <c r="B56" s="34"/>
+      <c r="A56" s="33"/>
+      <c r="B56" s="33"/>
       <c r="C56" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="34"/>
-      <c r="B57" s="34"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="33"/>
       <c r="C57" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="34"/>
-      <c r="B58" s="34"/>
+      <c r="A58" s="33"/>
+      <c r="B58" s="33"/>
       <c r="C58" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="34"/>
-      <c r="B59" s="35"/>
+      <c r="A59" s="33"/>
+      <c r="B59" s="34"/>
       <c r="C59" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="34"/>
-      <c r="B60" s="36" t="s">
+      <c r="A60" s="33"/>
+      <c r="B60" s="35" t="s">
         <v>433</v>
       </c>
       <c r="C60" s="4" t="s">
@@ -2931,92 +3116,92 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="34"/>
-      <c r="B61" s="37"/>
+      <c r="A61" s="33"/>
+      <c r="B61" s="36"/>
       <c r="C61" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="34"/>
-      <c r="B62" s="37"/>
+      <c r="A62" s="33"/>
+      <c r="B62" s="36"/>
       <c r="C62" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="34"/>
-      <c r="B63" s="37"/>
+      <c r="A63" s="33"/>
+      <c r="B63" s="36"/>
       <c r="C63" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="34"/>
-      <c r="B64" s="37"/>
+      <c r="A64" s="33"/>
+      <c r="B64" s="36"/>
       <c r="C64" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="34"/>
-      <c r="B65" s="37"/>
+      <c r="A65" s="33"/>
+      <c r="B65" s="36"/>
       <c r="C65" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="34"/>
-      <c r="B66" s="37"/>
+      <c r="A66" s="33"/>
+      <c r="B66" s="36"/>
       <c r="C66" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="34"/>
-      <c r="B67" s="37"/>
+      <c r="A67" s="33"/>
+      <c r="B67" s="36"/>
       <c r="C67" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="34"/>
-      <c r="B68" s="37"/>
+      <c r="A68" s="33"/>
+      <c r="B68" s="36"/>
       <c r="C68" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="34"/>
-      <c r="B69" s="37"/>
+      <c r="A69" s="33"/>
+      <c r="B69" s="36"/>
       <c r="C69" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="34"/>
-      <c r="B70" s="37"/>
+      <c r="A70" s="33"/>
+      <c r="B70" s="36"/>
       <c r="C70" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="34"/>
-      <c r="B71" s="37"/>
+      <c r="A71" s="33"/>
+      <c r="B71" s="36"/>
       <c r="C71" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="34"/>
-      <c r="B72" s="38"/>
+      <c r="A72" s="33"/>
+      <c r="B72" s="37"/>
       <c r="C72" s="2" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="34"/>
-      <c r="B73" s="36" t="s">
+      <c r="A73" s="33"/>
+      <c r="B73" s="35" t="s">
         <v>434</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -3024,71 +3209,71 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="34"/>
-      <c r="B74" s="34"/>
+      <c r="A74" s="33"/>
+      <c r="B74" s="33"/>
       <c r="C74" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="34"/>
-      <c r="B75" s="34"/>
+      <c r="A75" s="33"/>
+      <c r="B75" s="33"/>
       <c r="C75" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="34"/>
-      <c r="B76" s="34"/>
+      <c r="A76" s="33"/>
+      <c r="B76" s="33"/>
       <c r="C76" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="34"/>
-      <c r="B77" s="34"/>
+      <c r="A77" s="33"/>
+      <c r="B77" s="33"/>
       <c r="C77" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="34"/>
-      <c r="B78" s="34"/>
+      <c r="A78" s="33"/>
+      <c r="B78" s="33"/>
       <c r="C78" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="34"/>
-      <c r="B79" s="34"/>
+      <c r="A79" s="33"/>
+      <c r="B79" s="33"/>
       <c r="C79" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="34"/>
-      <c r="B80" s="34"/>
+      <c r="A80" s="33"/>
+      <c r="B80" s="33"/>
       <c r="C80" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="34"/>
-      <c r="B81" s="34"/>
+      <c r="A81" s="33"/>
+      <c r="B81" s="33"/>
       <c r="C81" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="34"/>
-      <c r="B82" s="35"/>
+      <c r="A82" s="33"/>
+      <c r="B82" s="34"/>
       <c r="C82" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="34"/>
-      <c r="B83" s="36" t="s">
+      <c r="A83" s="33"/>
+      <c r="B83" s="35" t="s">
         <v>435</v>
       </c>
       <c r="C83" s="4" t="s">
@@ -3096,43 +3281,43 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="34"/>
-      <c r="B84" s="34"/>
+      <c r="A84" s="33"/>
+      <c r="B84" s="33"/>
       <c r="C84" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" s="34"/>
-      <c r="B85" s="34"/>
+      <c r="A85" s="33"/>
+      <c r="B85" s="33"/>
       <c r="C85" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" s="34"/>
-      <c r="B86" s="34"/>
+      <c r="A86" s="33"/>
+      <c r="B86" s="33"/>
       <c r="C86" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" s="34"/>
-      <c r="B87" s="34"/>
+      <c r="A87" s="33"/>
+      <c r="B87" s="33"/>
       <c r="C87" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" s="34"/>
-      <c r="B88" s="34"/>
+      <c r="A88" s="33"/>
+      <c r="B88" s="33"/>
       <c r="C88" s="2" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="35"/>
-      <c r="B89" s="35"/>
+      <c r="A89" s="34"/>
+      <c r="B89" s="34"/>
       <c r="C89" s="2" t="s">
         <v>62</v>
       </c>
@@ -3168,23 +3353,23 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="22.26953125" customWidth="1"/>
-    <col min="3" max="3" width="26.08984375" customWidth="1"/>
+    <col min="3" max="3" width="26.1796875" customWidth="1"/>
     <col min="4" max="4" width="27.54296875" customWidth="1"/>
     <col min="5" max="5" width="16.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="18" t="s">
-        <v>508</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>511</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>509</v>
+    <row r="3" spans="1:5" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="17" t="s">
+        <v>500</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>503</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>502</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
@@ -3192,16 +3377,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
@@ -3209,16 +3394,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="145" x14ac:dyDescent="0.35">
@@ -3226,16 +3411,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
@@ -3243,16 +3428,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
@@ -3260,16 +3445,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>514</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
@@ -3277,16 +3462,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
@@ -3294,16 +3479,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
@@ -3311,16 +3496,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -3328,16 +3513,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="174" x14ac:dyDescent="0.35">
@@ -3345,16 +3530,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
@@ -3362,16 +3547,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -3379,16 +3564,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
@@ -3396,16 +3581,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
@@ -3781,10 +3966,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9766A069-D772-4BE6-B27B-4A655A8CB13D}">
-  <dimension ref="B2:D134"/>
+  <dimension ref="B2:H134"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D126" sqref="D126:D132"/>
+    <sheetView zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D126" sqref="B2:D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3794,21 +3979,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>414</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>436</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -3816,50 +4001,50 @@
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="40"/>
-      <c r="C10" s="39" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="38" t="s">
         <v>437</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -3867,43 +4052,43 @@
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="40"/>
-      <c r="C16" s="39" t="s">
+      <c r="B16" s="39"/>
+      <c r="C16" s="38" t="s">
         <v>438</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -3911,113 +4096,113 @@
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
       <c r="D22" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
       <c r="D25" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
       <c r="D28" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
       <c r="D31" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B32" s="40"/>
-      <c r="C32" s="39" t="s">
+      <c r="B32" s="39"/>
+      <c r="C32" s="38" t="s">
         <v>439</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -4025,57 +4210,57 @@
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
       <c r="D33" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
       <c r="D34" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
       <c r="D35" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
       <c r="D36" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
+    <row r="37" spans="2:4" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
       <c r="D37" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
       <c r="D38" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
       <c r="D39" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="40"/>
-      <c r="C40" s="39" t="s">
+      <c r="B40" s="39"/>
+      <c r="C40" s="38" t="s">
         <v>440</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -4083,43 +4268,43 @@
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
       <c r="D41" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
       <c r="D42" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
       <c r="D43" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
       <c r="D44" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
       <c r="D45" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B46" s="40"/>
-      <c r="C46" s="39" t="s">
+      <c r="B46" s="39"/>
+      <c r="C46" s="38" t="s">
         <v>441</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -4127,621 +4312,627 @@
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
       <c r="D47" s="2" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
       <c r="D48" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
       <c r="D49" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
+      <c r="H49" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
       <c r="D50" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
       <c r="D51" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
       <c r="D52" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
       <c r="D53" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
       <c r="D54" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B55" s="40"/>
-      <c r="C55" s="40"/>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
       <c r="D55" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
       <c r="D56" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B57" s="40"/>
-      <c r="C57" s="40"/>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
       <c r="D57" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B58" s="40"/>
-      <c r="C58" s="39" t="s">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B58" s="39"/>
+      <c r="C58" s="38" t="s">
         <v>442</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B59" s="40"/>
-      <c r="C59" s="40"/>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B59" s="39"/>
+      <c r="C59" s="39"/>
       <c r="D59" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
       <c r="D60" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B61" s="40"/>
-      <c r="C61" s="40"/>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
       <c r="D61" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B62" s="40"/>
-      <c r="C62" s="40"/>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
       <c r="D62" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B63" s="40"/>
-      <c r="C63" s="40"/>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B63" s="39"/>
+      <c r="C63" s="39"/>
       <c r="D63" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B64" s="40"/>
-      <c r="C64" s="40"/>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B64" s="39"/>
+      <c r="C64" s="39"/>
       <c r="D64" s="5" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B65" s="40"/>
-      <c r="C65" s="40"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
       <c r="D65" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B66" s="40"/>
-      <c r="C66" s="40"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
       <c r="D66" s="5" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B67" s="40"/>
-      <c r="C67" s="40"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
       <c r="D67" s="5" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B68" s="40"/>
-      <c r="C68" s="40"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
       <c r="D68" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B69" s="40"/>
-      <c r="C69" s="39" t="s">
-        <v>443</v>
+      <c r="B69" s="39"/>
+      <c r="C69" s="40" t="s">
+        <v>553</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B70" s="40"/>
-      <c r="C70" s="40"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
       <c r="D70" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B71" s="40"/>
-      <c r="C71" s="40"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
       <c r="D71" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B72" s="40"/>
-      <c r="C72" s="40"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="39"/>
       <c r="D72" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B73" s="40"/>
-      <c r="C73" s="40"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="39"/>
       <c r="D73" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B74" s="40"/>
-      <c r="C74" s="40"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
       <c r="D74" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B75" s="40"/>
-      <c r="C75" s="39" t="s">
-        <v>444</v>
+      <c r="B75" s="39"/>
+      <c r="C75" s="40" t="s">
+        <v>554</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B76" s="40"/>
-      <c r="C76" s="40"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="39"/>
       <c r="D76" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B77" s="40"/>
-      <c r="C77" s="40"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="39"/>
       <c r="D77" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B78" s="40"/>
-      <c r="C78" s="40"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="39"/>
       <c r="D78" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="79" spans="2:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="40"/>
-      <c r="C79" s="40"/>
+    <row r="79" spans="2:4" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="39"/>
+      <c r="C79" s="39"/>
       <c r="D79" s="2" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B80" s="40"/>
-      <c r="C80" s="40"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="39"/>
       <c r="D80" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B81" s="40"/>
-      <c r="C81" s="40"/>
+      <c r="B81" s="39"/>
+      <c r="C81" s="39"/>
       <c r="D81" s="2" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B82" s="40"/>
-      <c r="C82" s="40"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="39"/>
       <c r="D82" s="2" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B83" s="40"/>
-      <c r="C83" s="40"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="39"/>
       <c r="D83" s="2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B84" s="40"/>
-      <c r="C84" s="40"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="39"/>
       <c r="D84" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B85" s="40"/>
-      <c r="C85" s="40"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="39"/>
       <c r="D85" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B86" s="40"/>
-      <c r="C86" s="40"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="39"/>
       <c r="D86" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B87" s="40"/>
-      <c r="C87" s="39" t="s">
-        <v>445</v>
+      <c r="B87" s="39"/>
+      <c r="C87" s="40" t="s">
+        <v>555</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B88" s="40"/>
-      <c r="C88" s="40"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="39"/>
       <c r="D88" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B89" s="40"/>
-      <c r="C89" s="40"/>
+      <c r="B89" s="39"/>
+      <c r="C89" s="39"/>
       <c r="D89" s="2" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B90" s="40"/>
-      <c r="C90" s="40"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="39"/>
       <c r="D90" s="2" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B91" s="40"/>
-      <c r="C91" s="40"/>
+      <c r="B91" s="39"/>
+      <c r="C91" s="39"/>
       <c r="D91" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B92" s="40"/>
-      <c r="C92" s="40"/>
+      <c r="B92" s="39"/>
+      <c r="C92" s="39"/>
       <c r="D92" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B93" s="40"/>
-      <c r="C93" s="39" t="s">
-        <v>446</v>
+      <c r="B93" s="39"/>
+      <c r="C93" s="40" t="s">
+        <v>556</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B94" s="40"/>
-      <c r="C94" s="40"/>
+      <c r="B94" s="39"/>
+      <c r="C94" s="39"/>
       <c r="D94" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B95" s="40"/>
-      <c r="C95" s="40"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="39"/>
       <c r="D95" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B96" s="40"/>
-      <c r="C96" s="40"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="39"/>
       <c r="D96" s="2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B97" s="40"/>
-      <c r="C97" s="40"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="39"/>
       <c r="D97" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B98" s="40"/>
-      <c r="C98" s="40"/>
+      <c r="B98" s="39"/>
+      <c r="C98" s="39"/>
       <c r="D98" s="2" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B99" s="40"/>
-      <c r="C99" s="40"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="39"/>
       <c r="D99" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B100" s="40"/>
-      <c r="C100" s="40"/>
+      <c r="B100" s="39"/>
+      <c r="C100" s="39"/>
       <c r="D100" s="2" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B101" s="40"/>
-      <c r="C101" s="40"/>
+      <c r="B101" s="39"/>
+      <c r="C101" s="39"/>
       <c r="D101" s="2" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B102" s="40"/>
-      <c r="C102" s="40"/>
+      <c r="B102" s="39"/>
+      <c r="C102" s="39"/>
       <c r="D102" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B103" s="40"/>
-      <c r="C103" s="39" t="s">
-        <v>447</v>
+      <c r="B103" s="39"/>
+      <c r="C103" s="40" t="s">
+        <v>559</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B104" s="40"/>
-      <c r="C104" s="40"/>
+      <c r="B104" s="39"/>
+      <c r="C104" s="39"/>
       <c r="D104" s="2" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B105" s="40"/>
-      <c r="C105" s="40"/>
+      <c r="B105" s="39"/>
+      <c r="C105" s="39"/>
       <c r="D105" s="2" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B106" s="40"/>
-      <c r="C106" s="40"/>
+      <c r="B106" s="39"/>
+      <c r="C106" s="39"/>
       <c r="D106" s="2" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B107" s="40"/>
-      <c r="C107" s="40"/>
+      <c r="B107" s="39"/>
+      <c r="C107" s="39"/>
       <c r="D107" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B108" s="40"/>
-      <c r="C108" s="40"/>
+      <c r="B108" s="39"/>
+      <c r="C108" s="39"/>
       <c r="D108" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B109" s="40"/>
-      <c r="C109" s="40"/>
+      <c r="B109" s="39"/>
+      <c r="C109" s="39"/>
       <c r="D109" s="2" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B110" s="40"/>
-      <c r="C110" s="40"/>
+      <c r="B110" s="39"/>
+      <c r="C110" s="39"/>
       <c r="D110" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B111" s="40"/>
-      <c r="C111" s="40"/>
+      <c r="B111" s="39"/>
+      <c r="C111" s="39"/>
       <c r="D111" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B112" s="40"/>
-      <c r="C112" s="40"/>
+      <c r="B112" s="39"/>
+      <c r="C112" s="39"/>
       <c r="D112" s="2" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B113" s="40"/>
-      <c r="C113" s="39" t="s">
-        <v>448</v>
+      <c r="B113" s="39"/>
+      <c r="C113" s="40" t="s">
+        <v>557</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B114" s="40"/>
-      <c r="C114" s="40"/>
+      <c r="B114" s="39"/>
+      <c r="C114" s="39"/>
       <c r="D114" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B115" s="40"/>
-      <c r="C115" s="40"/>
+      <c r="B115" s="39"/>
+      <c r="C115" s="39"/>
       <c r="D115" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B116" s="40"/>
-      <c r="C116" s="40"/>
+      <c r="B116" s="39"/>
+      <c r="C116" s="39"/>
       <c r="D116" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B117" s="40"/>
-      <c r="C117" s="40"/>
+      <c r="B117" s="39"/>
+      <c r="C117" s="39"/>
       <c r="D117" s="2" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B118" s="40"/>
-      <c r="C118" s="40"/>
+      <c r="B118" s="39"/>
+      <c r="C118" s="39"/>
       <c r="D118" s="2" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B119" s="40"/>
-      <c r="C119" s="40"/>
+      <c r="B119" s="39"/>
+      <c r="C119" s="39"/>
       <c r="D119" s="2" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B120" s="40"/>
-      <c r="C120" s="40"/>
+      <c r="B120" s="39"/>
+      <c r="C120" s="39"/>
       <c r="D120" s="2" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B121" s="40"/>
-      <c r="C121" s="40"/>
+      <c r="B121" s="39"/>
+      <c r="C121" s="39"/>
       <c r="D121" s="2" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B122" s="40"/>
-      <c r="C122" s="40"/>
+      <c r="B122" s="39"/>
+      <c r="C122" s="39"/>
       <c r="D122" s="2" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B123" s="40"/>
-      <c r="C123" s="40"/>
+      <c r="B123" s="39"/>
+      <c r="C123" s="39"/>
       <c r="D123" s="2" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B124" s="40"/>
-      <c r="C124" s="40"/>
+      <c r="B124" s="39"/>
+      <c r="C124" s="39"/>
       <c r="D124" s="2" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B125" s="40"/>
-      <c r="C125" s="40"/>
+      <c r="B125" s="39"/>
+      <c r="C125" s="39"/>
       <c r="D125" s="2" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B126" s="40"/>
-      <c r="C126" s="39" t="s">
-        <v>449</v>
-      </c>
-      <c r="D126" s="40" t="s">
-        <v>507</v>
+      <c r="B126" s="39"/>
+      <c r="C126" s="40" t="s">
+        <v>558</v>
+      </c>
+      <c r="D126" s="39" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B127" s="40"/>
-      <c r="C127" s="40"/>
-      <c r="D127" s="40"/>
+      <c r="B127" s="39"/>
+      <c r="C127" s="39"/>
+      <c r="D127" s="39"/>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B128" s="40"/>
-      <c r="C128" s="40"/>
-      <c r="D128" s="40"/>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B129" s="40"/>
-      <c r="C129" s="40"/>
-      <c r="D129" s="40"/>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B130" s="40"/>
-      <c r="C130" s="40"/>
-      <c r="D130" s="40"/>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B131" s="40"/>
-      <c r="C131" s="40"/>
-      <c r="D131" s="40"/>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B132" s="40"/>
-      <c r="C132" s="40"/>
-      <c r="D132" s="40"/>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B128" s="39"/>
+      <c r="C128" s="39"/>
+      <c r="D128" s="39"/>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B129" s="39"/>
+      <c r="C129" s="39"/>
+      <c r="D129" s="39"/>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B130" s="39"/>
+      <c r="C130" s="39"/>
+      <c r="D130" s="39"/>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B131" s="39"/>
+      <c r="C131" s="39"/>
+      <c r="D131" s="39"/>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B132" s="39"/>
+      <c r="C132" s="39"/>
+      <c r="D132" s="39"/>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C134" s="10" t="s">
         <v>114</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>71</v>
+      </c>
+      <c r="E134" t="s">
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -4776,114 +4967,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7A55FF-A792-4077-B937-72DF4061DB9B}">
   <dimension ref="B8:E159"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:E159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" customWidth="1"/>
     <col min="3" max="3" width="22.453125" customWidth="1"/>
     <col min="4" max="4" width="17.1796875" customWidth="1"/>
-    <col min="5" max="5" width="23.90625" customWidth="1"/>
+    <col min="5" max="5" width="23.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="2:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="E8" s="1"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>423</v>
       </c>
       <c r="C10" s="43" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="43"/>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="34" t="s">
         <v>407</v>
       </c>
-      <c r="C11" s="37" t="s">
-        <v>452</v>
+      <c r="C11" s="36" t="s">
+        <v>445</v>
       </c>
       <c r="D11" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="40"/>
-      <c r="C12" s="34"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="42"/>
       <c r="E12" s="5" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="40"/>
-      <c r="C13" s="34"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="42"/>
       <c r="E13" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="40"/>
-      <c r="C14" s="34"/>
+    <row r="14" spans="2:5" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="39"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="42"/>
       <c r="E14" s="5" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B15" s="40"/>
-      <c r="C15" s="34"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="42"/>
       <c r="E15" s="5" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B16" s="40"/>
-      <c r="C16" s="34"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="42"/>
       <c r="E16" s="5" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="40"/>
-      <c r="C17" s="34"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="42"/>
       <c r="E17" s="5" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" s="40"/>
-      <c r="C18" s="34"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="42"/>
       <c r="E18" s="5" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B19" s="40"/>
-      <c r="C19" s="34"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="42"/>
       <c r="E19" s="2" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B20" s="40"/>
-      <c r="C20" s="34"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="42" t="s">
         <v>181</v>
       </c>
@@ -4892,91 +5083,91 @@
       </c>
     </row>
     <row r="21" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="40"/>
-      <c r="C21" s="34"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="42"/>
       <c r="E21" s="5" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B22" s="40"/>
-      <c r="C22" s="34"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="42"/>
       <c r="E22" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="40"/>
-      <c r="C23" s="34"/>
+    <row r="23" spans="2:5" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="39"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="42"/>
       <c r="E23" s="5" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B24" s="40"/>
-      <c r="C24" s="34"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="42"/>
       <c r="E24" s="2" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B25" s="40"/>
-      <c r="C25" s="34"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="42"/>
       <c r="E25" s="5" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B26" s="40"/>
-      <c r="C26" s="34"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="42"/>
       <c r="E26" s="5" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B27" s="40"/>
-      <c r="C27" s="34"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="42"/>
       <c r="E27" s="5" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B28" s="40"/>
-      <c r="C28" s="34"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="42"/>
       <c r="E28" s="2" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B29" s="40"/>
-      <c r="C29" s="34"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="42"/>
       <c r="E29" s="2" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B30" s="40"/>
-      <c r="C30" s="35"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="42"/>
       <c r="E30" s="2" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B31" s="40"/>
-      <c r="C31" s="39" t="s">
-        <v>453</v>
-      </c>
-      <c r="D31" s="40" t="s">
+      <c r="B31" s="39"/>
+      <c r="C31" s="38" t="s">
+        <v>446</v>
+      </c>
+      <c r="D31" s="39" t="s">
         <v>186</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -4984,105 +5175,105 @@
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
       <c r="E32" s="2" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
       <c r="E33" s="2" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
       <c r="E34" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
       <c r="E35" s="2" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
       <c r="E36" s="2" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
       <c r="E37" s="2" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
       <c r="E38" s="2" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
       <c r="E39" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
       <c r="E40" s="2" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
       <c r="E41" s="2" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
       <c r="E42" s="2" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
       <c r="E43" s="2" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40" t="s">
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39" t="s">
         <v>197</v>
       </c>
       <c r="E44" s="2" t="s">
@@ -5090,205 +5281,205 @@
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
       <c r="E45" s="2" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
       <c r="E46" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
       <c r="E47" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
       <c r="E48" s="2" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
       <c r="E49" s="2" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
       <c r="E50" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
       <c r="E51" s="2" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
       <c r="E52" s="2" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
       <c r="E53" s="2" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
       <c r="E54" s="2" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B55" s="40"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
       <c r="E55" s="2" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
       <c r="E56" s="2" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B57" s="40"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
       <c r="E57" s="2" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B58" s="40"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
       <c r="E58" s="2" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B59" s="40"/>
-      <c r="C59" s="39" t="s">
-        <v>454</v>
-      </c>
-      <c r="D59" s="40" t="s">
-        <v>451</v>
+      <c r="B59" s="39"/>
+      <c r="C59" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="D59" s="39" t="s">
+        <v>444</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
       <c r="E60" s="2" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B61" s="40"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
       <c r="E61" s="2" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B62" s="40"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
       <c r="E62" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B63" s="40"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
       <c r="E63" s="2" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B64" s="40"/>
-      <c r="C64" s="40"/>
-      <c r="D64" s="40"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
       <c r="E64" s="2" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B65" s="40"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="40"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
       <c r="E65" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B66" s="40"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
       <c r="E66" s="2" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B67" s="40"/>
-      <c r="C67" s="40"/>
-      <c r="D67" s="40"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
       <c r="E67" s="2" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B68" s="40"/>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
       <c r="E68" s="2" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B69" s="40"/>
-      <c r="C69" s="40"/>
-      <c r="D69" s="40" t="s">
+      <c r="B69" s="39"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39" t="s">
         <v>210</v>
       </c>
       <c r="E69" s="2" t="s">
@@ -5296,189 +5487,189 @@
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B70" s="40"/>
-      <c r="C70" s="40"/>
-      <c r="D70" s="40"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
       <c r="E70" s="2" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B71" s="40"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
       <c r="E71" s="2" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B72" s="40"/>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
       <c r="E72" s="2" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B73" s="40"/>
-      <c r="C73" s="40"/>
-      <c r="D73" s="40"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="39"/>
       <c r="E73" s="2" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B74" s="40"/>
-      <c r="C74" s="40"/>
-      <c r="D74" s="40"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
       <c r="E74" s="2" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B75" s="40"/>
-      <c r="C75" s="40"/>
-      <c r="D75" s="40"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="39"/>
       <c r="E75" s="2" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B76" s="40"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="39"/>
       <c r="E76" s="2" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B77" s="40"/>
-      <c r="C77" s="40"/>
-      <c r="D77" s="40"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="39"/>
       <c r="E77" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B78" s="40"/>
-      <c r="C78" s="40"/>
-      <c r="D78" s="40"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="39"/>
       <c r="E78" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B79" s="40"/>
-      <c r="C79" s="40"/>
-      <c r="D79" s="40"/>
+      <c r="B79" s="39"/>
+      <c r="C79" s="39"/>
+      <c r="D79" s="39"/>
       <c r="E79" s="2" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B80" s="40"/>
-      <c r="C80" s="40"/>
-      <c r="D80" s="40"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
       <c r="E80" s="2" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B81" s="40"/>
-      <c r="C81" s="39" t="s">
-        <v>455</v>
-      </c>
-      <c r="D81" s="40" t="s">
-        <v>450</v>
+      <c r="B81" s="39"/>
+      <c r="C81" s="38" t="s">
+        <v>448</v>
+      </c>
+      <c r="D81" s="39" t="s">
+        <v>443</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B82" s="40"/>
-      <c r="C82" s="40"/>
-      <c r="D82" s="40"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="39"/>
+      <c r="D82" s="39"/>
       <c r="E82" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B83" s="40"/>
-      <c r="C83" s="40"/>
-      <c r="D83" s="40"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="39"/>
+      <c r="D83" s="39"/>
       <c r="E83" s="2" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B84" s="40"/>
-      <c r="C84" s="40"/>
-      <c r="D84" s="40"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="39"/>
       <c r="E84" s="2" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B85" s="40"/>
-      <c r="C85" s="40"/>
-      <c r="D85" s="40"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="39"/>
       <c r="E85" s="2" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B86" s="40"/>
-      <c r="C86" s="40"/>
-      <c r="D86" s="40"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="39"/>
       <c r="E86" s="2" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B87" s="40"/>
-      <c r="C87" s="40"/>
-      <c r="D87" s="40"/>
+      <c r="B87" s="39"/>
+      <c r="C87" s="39"/>
+      <c r="D87" s="39"/>
       <c r="E87" s="2" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B88" s="40"/>
-      <c r="C88" s="40"/>
-      <c r="D88" s="40"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="39"/>
+      <c r="D88" s="39"/>
       <c r="E88" s="2" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B89" s="40"/>
-      <c r="C89" s="40"/>
-      <c r="D89" s="40"/>
+      <c r="B89" s="39"/>
+      <c r="C89" s="39"/>
+      <c r="D89" s="39"/>
       <c r="E89" s="2" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B90" s="40"/>
-      <c r="C90" s="40"/>
-      <c r="D90" s="40"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="39"/>
       <c r="E90" s="2" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B91" s="40"/>
-      <c r="C91" s="40"/>
-      <c r="D91" s="40"/>
+      <c r="B91" s="39"/>
+      <c r="C91" s="39"/>
+      <c r="D91" s="39"/>
       <c r="E91" s="2" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B92" s="40"/>
-      <c r="C92" s="40"/>
-      <c r="D92" s="40" t="s">
+      <c r="B92" s="39"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="39" t="s">
         <v>215</v>
       </c>
       <c r="E92" s="2" t="s">
@@ -5486,558 +5677,555 @@
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B93" s="40"/>
-      <c r="C93" s="40"/>
-      <c r="D93" s="40"/>
+      <c r="B93" s="39"/>
+      <c r="C93" s="39"/>
+      <c r="D93" s="39"/>
       <c r="E93" s="2" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B94" s="40"/>
-      <c r="C94" s="40"/>
-      <c r="D94" s="40"/>
+      <c r="B94" s="39"/>
+      <c r="C94" s="39"/>
+      <c r="D94" s="39"/>
       <c r="E94" s="2" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B95" s="40"/>
-      <c r="C95" s="40"/>
-      <c r="D95" s="40"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="39"/>
+      <c r="D95" s="39"/>
       <c r="E95" s="2" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B96" s="40"/>
-      <c r="C96" s="40"/>
-      <c r="D96" s="40"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="39"/>
+      <c r="D96" s="39"/>
       <c r="E96" s="2" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B97" s="40"/>
-      <c r="C97" s="40"/>
-      <c r="D97" s="40"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="39"/>
+      <c r="D97" s="39"/>
       <c r="E97" s="2" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B98" s="40"/>
-      <c r="C98" s="40"/>
-      <c r="D98" s="40"/>
+      <c r="B98" s="39"/>
+      <c r="C98" s="39"/>
+      <c r="D98" s="39"/>
       <c r="E98" s="2" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B99" s="40"/>
-      <c r="C99" s="40"/>
-      <c r="D99" s="40"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="39"/>
+      <c r="D99" s="39"/>
       <c r="E99" s="2" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B100" s="40"/>
-      <c r="C100" s="40"/>
-      <c r="D100" s="40"/>
+      <c r="B100" s="39"/>
+      <c r="C100" s="39"/>
+      <c r="D100" s="39"/>
       <c r="E100" s="2" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B101" s="40"/>
-      <c r="C101" s="40"/>
-      <c r="D101" s="40"/>
+      <c r="B101" s="39"/>
+      <c r="C101" s="39"/>
+      <c r="D101" s="39"/>
       <c r="E101" s="2" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B102" s="40"/>
-      <c r="C102" s="39" t="s">
-        <v>456</v>
-      </c>
-      <c r="D102" s="40"/>
+      <c r="B102" s="39"/>
+      <c r="C102" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="D102" s="39"/>
       <c r="E102" s="2" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B103" s="40"/>
-      <c r="C103" s="40"/>
-      <c r="D103" s="40"/>
+      <c r="B103" s="39"/>
+      <c r="C103" s="39"/>
+      <c r="D103" s="39"/>
       <c r="E103" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B104" s="40"/>
-      <c r="C104" s="40"/>
-      <c r="D104" s="40"/>
+      <c r="B104" s="39"/>
+      <c r="C104" s="39"/>
+      <c r="D104" s="39"/>
       <c r="E104" s="2" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B105" s="40"/>
-      <c r="C105" s="40"/>
-      <c r="D105" s="40"/>
+      <c r="B105" s="39"/>
+      <c r="C105" s="39"/>
+      <c r="D105" s="39"/>
       <c r="E105" s="2" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B106" s="40"/>
-      <c r="C106" s="40"/>
-      <c r="D106" s="40"/>
+      <c r="B106" s="39"/>
+      <c r="C106" s="39"/>
+      <c r="D106" s="39"/>
       <c r="E106" s="2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B107" s="40"/>
-      <c r="C107" s="40"/>
-      <c r="D107" s="40"/>
+      <c r="B107" s="39"/>
+      <c r="C107" s="39"/>
+      <c r="D107" s="39"/>
       <c r="E107" s="2" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B108" s="40"/>
-      <c r="C108" s="40"/>
-      <c r="D108" s="40"/>
+      <c r="B108" s="39"/>
+      <c r="C108" s="39"/>
+      <c r="D108" s="39"/>
       <c r="E108" s="2" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B109" s="40"/>
-      <c r="C109" s="40"/>
-      <c r="D109" s="40"/>
+      <c r="B109" s="39"/>
+      <c r="C109" s="39"/>
+      <c r="D109" s="39"/>
       <c r="E109" s="2" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B110" s="40"/>
-      <c r="C110" s="40"/>
-      <c r="D110" s="40"/>
+      <c r="B110" s="39"/>
+      <c r="C110" s="39"/>
+      <c r="D110" s="39"/>
       <c r="E110" s="2" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B111" s="40"/>
-      <c r="C111" s="40"/>
-      <c r="D111" s="40"/>
+      <c r="B111" s="39"/>
+      <c r="C111" s="39"/>
+      <c r="D111" s="39"/>
       <c r="E111" s="2" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B112" s="40"/>
-      <c r="C112" s="40"/>
-      <c r="D112" s="40"/>
+      <c r="B112" s="39"/>
+      <c r="C112" s="39"/>
+      <c r="D112" s="39"/>
       <c r="E112" s="2" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B113" s="40"/>
-      <c r="C113" s="40"/>
-      <c r="D113" s="40"/>
+      <c r="B113" s="39"/>
+      <c r="C113" s="39"/>
+      <c r="D113" s="39"/>
       <c r="E113" s="2" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B114" s="40"/>
-      <c r="C114" s="39" t="s">
-        <v>457</v>
-      </c>
-      <c r="D114" s="40"/>
+      <c r="B114" s="39"/>
+      <c r="C114" s="38" t="s">
+        <v>450</v>
+      </c>
+      <c r="D114" s="39"/>
       <c r="E114" s="2" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B115" s="40"/>
-      <c r="C115" s="40"/>
-      <c r="D115" s="40"/>
+      <c r="B115" s="39"/>
+      <c r="C115" s="39"/>
+      <c r="D115" s="39"/>
       <c r="E115" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B116" s="40"/>
-      <c r="C116" s="40"/>
-      <c r="D116" s="40"/>
+      <c r="B116" s="39"/>
+      <c r="C116" s="39"/>
+      <c r="D116" s="39"/>
       <c r="E116" s="2" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B117" s="40"/>
-      <c r="C117" s="40"/>
-      <c r="D117" s="40"/>
+      <c r="B117" s="39"/>
+      <c r="C117" s="39"/>
+      <c r="D117" s="39"/>
       <c r="E117" s="2" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B118" s="40"/>
-      <c r="C118" s="40"/>
-      <c r="D118" s="40"/>
+      <c r="B118" s="39"/>
+      <c r="C118" s="39"/>
+      <c r="D118" s="39"/>
       <c r="E118" s="2" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B119" s="40"/>
-      <c r="C119" s="40"/>
-      <c r="D119" s="40"/>
+      <c r="B119" s="39"/>
+      <c r="C119" s="39"/>
+      <c r="D119" s="39"/>
       <c r="E119" s="2" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B120" s="40"/>
-      <c r="C120" s="40"/>
-      <c r="D120" s="40"/>
+      <c r="B120" s="39"/>
+      <c r="C120" s="39"/>
+      <c r="D120" s="39"/>
       <c r="E120" s="2" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B121" s="40"/>
-      <c r="C121" s="40"/>
-      <c r="D121" s="40"/>
+      <c r="B121" s="39"/>
+      <c r="C121" s="39"/>
+      <c r="D121" s="39"/>
       <c r="E121" s="2" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B122" s="40"/>
-      <c r="C122" s="40"/>
-      <c r="D122" s="40"/>
+      <c r="B122" s="39"/>
+      <c r="C122" s="39"/>
+      <c r="D122" s="39"/>
       <c r="E122" s="2" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B123" s="40"/>
-      <c r="C123" s="40"/>
-      <c r="D123" s="40"/>
+      <c r="B123" s="39"/>
+      <c r="C123" s="39"/>
+      <c r="D123" s="39"/>
       <c r="E123" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B124" s="40"/>
-      <c r="C124" s="39" t="s">
-        <v>458</v>
-      </c>
-      <c r="D124" s="40"/>
+      <c r="B124" s="39"/>
+      <c r="C124" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="D124" s="39"/>
       <c r="E124" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B125" s="40"/>
-      <c r="C125" s="40"/>
-      <c r="D125" s="40"/>
+      <c r="B125" s="39"/>
+      <c r="C125" s="39"/>
+      <c r="D125" s="39"/>
       <c r="E125" s="2" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B126" s="40"/>
-      <c r="C126" s="40"/>
-      <c r="D126" s="40"/>
+      <c r="B126" s="39"/>
+      <c r="C126" s="39"/>
+      <c r="D126" s="39"/>
       <c r="E126" s="2" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B127" s="40"/>
-      <c r="C127" s="40"/>
-      <c r="D127" s="40"/>
+      <c r="B127" s="39"/>
+      <c r="C127" s="39"/>
+      <c r="D127" s="39"/>
       <c r="E127" s="2" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B128" s="40"/>
-      <c r="C128" s="40"/>
-      <c r="D128" s="40"/>
+      <c r="B128" s="39"/>
+      <c r="C128" s="39"/>
+      <c r="D128" s="39"/>
       <c r="E128" s="2" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B129" s="40"/>
-      <c r="C129" s="40"/>
-      <c r="D129" s="40"/>
+      <c r="B129" s="39"/>
+      <c r="C129" s="39"/>
+      <c r="D129" s="39"/>
       <c r="E129" s="2" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B130" s="40"/>
-      <c r="C130" s="40"/>
-      <c r="D130" s="40"/>
+      <c r="B130" s="39"/>
+      <c r="C130" s="39"/>
+      <c r="D130" s="39"/>
       <c r="E130" s="2" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B131" s="40"/>
-      <c r="C131" s="40"/>
-      <c r="D131" s="40"/>
+      <c r="B131" s="39"/>
+      <c r="C131" s="39"/>
+      <c r="D131" s="39"/>
       <c r="E131" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B132" s="40"/>
-      <c r="C132" s="40"/>
-      <c r="D132" s="40"/>
+      <c r="B132" s="39"/>
+      <c r="C132" s="39"/>
+      <c r="D132" s="39"/>
       <c r="E132" s="2" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B133" s="40"/>
-      <c r="C133" s="40"/>
-      <c r="D133" s="40"/>
+      <c r="B133" s="39"/>
+      <c r="C133" s="39"/>
+      <c r="D133" s="39"/>
       <c r="E133" s="2" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B134" s="40"/>
-      <c r="C134" s="39" t="s">
-        <v>459</v>
-      </c>
-      <c r="D134" s="40"/>
+      <c r="B134" s="39"/>
+      <c r="C134" s="38" t="s">
+        <v>452</v>
+      </c>
+      <c r="D134" s="39"/>
       <c r="E134" s="2" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B135" s="40"/>
-      <c r="C135" s="40"/>
-      <c r="D135" s="40"/>
+      <c r="B135" s="39"/>
+      <c r="C135" s="39"/>
+      <c r="D135" s="39"/>
       <c r="E135" s="2" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B136" s="40"/>
-      <c r="C136" s="40"/>
-      <c r="D136" s="40"/>
+      <c r="B136" s="39"/>
+      <c r="C136" s="39"/>
+      <c r="D136" s="39"/>
       <c r="E136" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B137" s="40"/>
-      <c r="C137" s="40"/>
-      <c r="D137" s="40"/>
+      <c r="B137" s="39"/>
+      <c r="C137" s="39"/>
+      <c r="D137" s="39"/>
       <c r="E137" s="2" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B138" s="40"/>
-      <c r="C138" s="40"/>
-      <c r="D138" s="40"/>
+      <c r="B138" s="39"/>
+      <c r="C138" s="39"/>
+      <c r="D138" s="39"/>
       <c r="E138" s="2" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B139" s="40"/>
-      <c r="C139" s="40"/>
-      <c r="D139" s="40"/>
+      <c r="B139" s="39"/>
+      <c r="C139" s="39"/>
+      <c r="D139" s="39"/>
       <c r="E139" s="2" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B140" s="40"/>
-      <c r="C140" s="40"/>
-      <c r="D140" s="40"/>
+      <c r="B140" s="39"/>
+      <c r="C140" s="39"/>
+      <c r="D140" s="39"/>
       <c r="E140" s="2" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B141" s="40"/>
-      <c r="C141" s="40"/>
-      <c r="D141" s="40"/>
+      <c r="B141" s="39"/>
+      <c r="C141" s="39"/>
+      <c r="D141" s="39"/>
       <c r="E141" s="2" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B142" s="40"/>
-      <c r="C142" s="40"/>
-      <c r="D142" s="40"/>
+      <c r="B142" s="39"/>
+      <c r="C142" s="39"/>
+      <c r="D142" s="39"/>
       <c r="E142" s="2" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B143" s="40"/>
-      <c r="C143" s="40"/>
-      <c r="D143" s="40"/>
+      <c r="B143" s="39"/>
+      <c r="C143" s="39"/>
+      <c r="D143" s="39"/>
       <c r="E143" s="2" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B144" s="40"/>
-      <c r="C144" s="39" t="s">
-        <v>460</v>
-      </c>
-      <c r="D144" s="40"/>
+      <c r="B144" s="39"/>
+      <c r="C144" s="38" t="s">
+        <v>453</v>
+      </c>
+      <c r="D144" s="39"/>
       <c r="E144" s="2" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B145" s="40"/>
-      <c r="C145" s="40"/>
-      <c r="D145" s="40"/>
+      <c r="B145" s="39"/>
+      <c r="C145" s="39"/>
+      <c r="D145" s="39"/>
       <c r="E145" s="2" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B146" s="40"/>
-      <c r="C146" s="40"/>
-      <c r="D146" s="40"/>
+      <c r="B146" s="39"/>
+      <c r="C146" s="39"/>
+      <c r="D146" s="39"/>
       <c r="E146" s="2" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B147" s="40"/>
-      <c r="C147" s="40"/>
-      <c r="D147" s="40"/>
+      <c r="B147" s="39"/>
+      <c r="C147" s="39"/>
+      <c r="D147" s="39"/>
       <c r="E147" s="2" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B148" s="40"/>
-      <c r="C148" s="40"/>
-      <c r="D148" s="40"/>
+      <c r="B148" s="39"/>
+      <c r="C148" s="39"/>
+      <c r="D148" s="39"/>
       <c r="E148" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B149" s="40"/>
-      <c r="C149" s="40"/>
-      <c r="D149" s="40"/>
+      <c r="B149" s="39"/>
+      <c r="C149" s="39"/>
+      <c r="D149" s="39"/>
       <c r="E149" s="2" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B150" s="40"/>
-      <c r="C150" s="40"/>
-      <c r="D150" s="40"/>
+      <c r="B150" s="39"/>
+      <c r="C150" s="39"/>
+      <c r="D150" s="39"/>
       <c r="E150" s="2" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B151" s="40"/>
-      <c r="C151" s="40"/>
-      <c r="D151" s="40"/>
+      <c r="B151" s="39"/>
+      <c r="C151" s="39"/>
+      <c r="D151" s="39"/>
       <c r="E151" s="2" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B152" s="40"/>
-      <c r="C152" s="40"/>
-      <c r="D152" s="40"/>
+      <c r="B152" s="39"/>
+      <c r="C152" s="39"/>
+      <c r="D152" s="39"/>
       <c r="E152" s="2" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B153" s="40"/>
-      <c r="C153" s="39" t="s">
-        <v>461</v>
-      </c>
-      <c r="D153" s="40"/>
+      <c r="B153" s="39"/>
+      <c r="C153" s="38" t="s">
+        <v>454</v>
+      </c>
+      <c r="D153" s="39"/>
       <c r="E153" s="2" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B154" s="40"/>
-      <c r="C154" s="40"/>
-      <c r="D154" s="40"/>
+      <c r="B154" s="39"/>
+      <c r="C154" s="39"/>
+      <c r="D154" s="39"/>
       <c r="E154" s="2" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B155" s="40"/>
-      <c r="C155" s="40"/>
-      <c r="D155" s="40"/>
+      <c r="B155" s="39"/>
+      <c r="C155" s="39"/>
+      <c r="D155" s="39"/>
       <c r="E155" s="2" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B156" s="40"/>
-      <c r="C156" s="40"/>
-      <c r="D156" s="40"/>
+      <c r="B156" s="39"/>
+      <c r="C156" s="39"/>
+      <c r="D156" s="39"/>
       <c r="E156" s="2" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B157" s="40"/>
-      <c r="C157" s="40"/>
-      <c r="D157" s="40"/>
+      <c r="B157" s="39"/>
+      <c r="C157" s="39"/>
+      <c r="D157" s="39"/>
       <c r="E157" s="2" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="158" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B158" s="40"/>
-      <c r="C158" s="40"/>
-      <c r="D158" s="40"/>
+      <c r="B158" s="39"/>
+      <c r="C158" s="39"/>
+      <c r="D158" s="39"/>
       <c r="E158" s="2" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B159" s="40"/>
-      <c r="C159" s="40"/>
-      <c r="D159" s="40"/>
+      <c r="B159" s="39"/>
+      <c r="C159" s="39"/>
+      <c r="D159" s="39"/>
       <c r="E159" s="2" t="s">
         <v>205</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D31:D43"/>
-    <mergeCell ref="D59:D68"/>
-    <mergeCell ref="C31:C58"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="B11:B159"/>
     <mergeCell ref="C11:C30"/>
@@ -6055,6 +6243,9 @@
     <mergeCell ref="C59:C80"/>
     <mergeCell ref="D11:D19"/>
     <mergeCell ref="D20:D30"/>
+    <mergeCell ref="D31:D43"/>
+    <mergeCell ref="D59:D68"/>
+    <mergeCell ref="C31:C58"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6068,7 +6259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404F557D-9777-4DAC-A8B5-33F7D51AC88E}">
   <dimension ref="A5:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
       <selection activeCell="F41" sqref="C5:F48"/>
     </sheetView>
   </sheetViews>
@@ -6076,40 +6267,40 @@
   <cols>
     <col min="1" max="1" width="34.7265625" customWidth="1"/>
     <col min="2" max="2" width="28.1796875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="19.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" customWidth="1"/>
     <col min="4" max="4" width="24.7265625" customWidth="1"/>
-    <col min="5" max="5" width="19.36328125" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" customWidth="1"/>
     <col min="6" max="6" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22" t="s">
+      <c r="E5" s="20"/>
+      <c r="F5" s="21" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="35" t="s">
         <v>416</v>
       </c>
-      <c r="D6" s="39" t="s">
-        <v>469</v>
-      </c>
-      <c r="E6" s="40"/>
+      <c r="D6" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="E6" s="39"/>
       <c r="F6" s="2" t="s">
         <v>276</v>
       </c>
@@ -6119,9 +6310,9 @@
       <c r="B7" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="2" t="s">
         <v>278</v>
       </c>
@@ -6131,9 +6322,9 @@
       <c r="B8" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
       <c r="F8" s="2" t="s">
         <v>280</v>
       </c>
@@ -6143,9 +6334,9 @@
       <c r="B9" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="2" t="s">
         <v>282</v>
       </c>
@@ -6155,9 +6346,9 @@
       <c r="B10" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
       <c r="F10" s="2" t="s">
         <v>284</v>
       </c>
@@ -6167,9 +6358,9 @@
       <c r="B11" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="2" t="s">
         <v>286</v>
       </c>
@@ -6179,21 +6370,21 @@
       <c r="B12" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
       <c r="F12" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
       <c r="F13" s="2" t="s">
         <v>290</v>
       </c>
@@ -6203,21 +6394,21 @@
       <c r="B14" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
       <c r="F14" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
       <c r="F15" s="2" t="s">
         <v>294</v>
       </c>
@@ -6227,11 +6418,11 @@
       <c r="B16" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="39" t="s">
-        <v>472</v>
-      </c>
-      <c r="E16" s="40" t="s">
+      <c r="C16" s="36"/>
+      <c r="D16" s="38" t="s">
+        <v>465</v>
+      </c>
+      <c r="E16" s="39" t="s">
         <v>298</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -6243,9 +6434,9 @@
       <c r="B17" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
       <c r="F17" s="2" t="s">
         <v>299</v>
       </c>
@@ -6255,9 +6446,9 @@
       <c r="B18" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
       <c r="F18" s="2" t="s">
         <v>301</v>
       </c>
@@ -6267,9 +6458,9 @@
       <c r="B19" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="40"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
       <c r="F19" s="2" t="s">
         <v>303</v>
       </c>
@@ -6277,79 +6468,79 @@
     <row r="20" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="40" t="s">
+      <c r="C20" s="36"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39" t="s">
         <v>305</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="40"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
       <c r="F21" s="2" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="9"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="39" t="s">
-        <v>473</v>
-      </c>
-      <c r="E22" s="40" t="s">
+      <c r="C22" s="36"/>
+      <c r="D22" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="E22" s="39" t="s">
         <v>306</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="9"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
       <c r="F23" s="2" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
       <c r="F24" s="2" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="9"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40" t="s">
+      <c r="C25" s="36"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39" t="s">
         <v>307</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="9"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
       <c r="F26" s="2" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -6357,11 +6548,11 @@
       <c r="B27" t="s">
         <v>311</v>
       </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="39" t="s">
-        <v>470</v>
-      </c>
-      <c r="E27" s="40"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="38" t="s">
+        <v>463</v>
+      </c>
+      <c r="E27" s="39"/>
       <c r="F27" s="2" t="s">
         <v>310</v>
       </c>
@@ -6371,9 +6562,9 @@
       <c r="B28" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
       <c r="F28" s="2" t="s">
         <v>312</v>
       </c>
@@ -6383,9 +6574,9 @@
       <c r="B29" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
       <c r="F29" s="2" t="s">
         <v>314</v>
       </c>
@@ -6395,9 +6586,9 @@
       <c r="B30" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
       <c r="F30" s="2" t="s">
         <v>316</v>
       </c>
@@ -6407,9 +6598,9 @@
       <c r="B31" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
       <c r="F31" s="2" t="s">
         <v>318</v>
       </c>
@@ -6419,21 +6610,21 @@
       <c r="B32" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
       <c r="F32" s="2" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="6"/>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
       <c r="F33" s="2" t="s">
         <v>322</v>
       </c>
@@ -6443,15 +6634,15 @@
       <c r="B34" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="39" t="s">
-        <v>471</v>
-      </c>
-      <c r="E34" s="40" t="s">
+      <c r="C34" s="36"/>
+      <c r="D34" s="38" t="s">
+        <v>464</v>
+      </c>
+      <c r="E34" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="F34" s="40" t="s">
-        <v>507</v>
+      <c r="F34" s="39" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -6459,127 +6650,127 @@
       <c r="B35" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
     </row>
     <row r="36" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="C36" s="37"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
     </row>
     <row r="37" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="C37" s="37"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="9"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="9"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="9"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
       <c r="B41" s="9"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40" t="s">
+      <c r="C41" s="36"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="F41" s="40" t="s">
-        <v>506</v>
+      <c r="F41" s="39" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
       <c r="B42" s="9"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
       <c r="B43" s="9"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
       <c r="B45" s="9"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
       <c r="B46" s="9"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" s="9"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="9"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="9"/>
-      <c r="C49" s="44"/>
+      <c r="C49" s="31"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -6587,17 +6778,17 @@
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="9"/>
-      <c r="C50" s="44"/>
+      <c r="C50" s="31"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="9"/>
-      <c r="C51" s="44"/>
+      <c r="C51" s="31"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="B52" s="9"/>
-      <c r="C52" s="44"/>
+      <c r="C52" s="31"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
@@ -6606,6 +6797,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C6:C48"/>
+    <mergeCell ref="F41:F48"/>
+    <mergeCell ref="F34:F40"/>
+    <mergeCell ref="D34:D48"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="D22:D26"/>
     <mergeCell ref="D6:E15"/>
     <mergeCell ref="E16:E19"/>
     <mergeCell ref="D27:E33"/>
@@ -6613,13 +6811,6 @@
     <mergeCell ref="E41:E48"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D16:D21"/>
-    <mergeCell ref="C6:C48"/>
-    <mergeCell ref="F41:F48"/>
-    <mergeCell ref="F34:F40"/>
-    <mergeCell ref="D34:D48"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="D22:D26"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6632,10 +6823,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF25547-C823-4F33-AC6F-F43AC603D32A}">
-  <dimension ref="B5:D43"/>
+  <dimension ref="B5:K42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6646,199 +6837,226 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="21" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="35" t="s">
         <v>418</v>
       </c>
-      <c r="C6" s="39" t="s">
-        <v>474</v>
+      <c r="C6" s="38" t="s">
+        <v>467</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="2" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="2" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="39"/>
-      <c r="C9" s="40"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="2" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="2" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="2" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="39"/>
-      <c r="C12" s="40"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="2" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="39"/>
-      <c r="C13" s="40"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="2" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="39"/>
-      <c r="C14" s="40"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="2" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="2" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="39"/>
-      <c r="C16" s="39" t="s">
-        <v>475</v>
+      <c r="B16" s="36"/>
+      <c r="C16" s="38" t="s">
+        <v>468</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="39"/>
-      <c r="C17" s="40"/>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B17" s="36"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="39"/>
-      <c r="C18" s="40"/>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B18" s="36"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="2" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="39"/>
-      <c r="C19" s="40"/>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B19" s="36"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="2" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="39"/>
-      <c r="C20" s="40"/>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B20" s="36"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="2" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="39"/>
-      <c r="C21" s="40"/>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B21" s="36"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B22" s="36"/>
+      <c r="C22" s="39"/>
       <c r="D22" s="2" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="39"/>
-      <c r="C23" s="40"/>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B23" s="36"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="2" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
+    <row r="24" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="36"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="2" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+    <row r="25" spans="2:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="36"/>
+      <c r="C25" s="35" t="s">
+        <v>571</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="I25" s="44"/>
+      <c r="J25" s="45" t="s">
+        <v>569</v>
+      </c>
+      <c r="K25" s="46" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B26" s="36"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B27" s="36"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B28" s="36"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B29" s="36"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="36"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="36"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="36"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="37"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="2" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B34" s="2"/>
@@ -6885,16 +7103,12 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B6:B24"/>
+  <mergeCells count="4">
     <mergeCell ref="C6:C15"/>
     <mergeCell ref="C16:C24"/>
+    <mergeCell ref="C25:C33"/>
+    <mergeCell ref="B6:B33"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6909,7 +7123,7 @@
   <dimension ref="B2:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B2" sqref="B2:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6920,188 +7134,188 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>411</v>
       </c>
-      <c r="C3" s="36" t="s">
-        <v>481</v>
+      <c r="C3" s="35" t="s">
+        <v>474</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="12" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="12" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
+    <row r="6" spans="2:4" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="12" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="12" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="16" t="s">
-        <v>476</v>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="15" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="12" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="16" t="s">
-        <v>478</v>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="15" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="34"/>
-      <c r="C11" s="36" t="s">
-        <v>482</v>
+      <c r="B11" s="33"/>
+      <c r="C11" s="35" t="s">
+        <v>475</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="12" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="12" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="16" t="s">
-        <v>479</v>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="15" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="16" t="s">
-        <v>477</v>
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="15" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="34"/>
-      <c r="C16" s="36" t="s">
-        <v>480</v>
+      <c r="B16" s="33"/>
+      <c r="C16" s="35" t="s">
+        <v>473</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="12" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="12" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="12" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="12" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="12" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="12" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="12" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="12" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="12" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="12" t="s">
         <v>366</v>
       </c>
@@ -7123,10 +7337,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FF300A-3906-48FE-8AC8-9300B6B09157}">
-  <dimension ref="B1:F17"/>
+  <dimension ref="B1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7149,94 +7363,212 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="21" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="39" t="s">
         <v>419</v>
       </c>
-      <c r="C6" s="39" t="s">
-        <v>483</v>
+      <c r="C6" s="38" t="s">
+        <v>476</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="2" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="2" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="2" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="2" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
+    <row r="12" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="40"/>
-      <c r="C13" s="13" t="s">
-        <v>505</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C14" s="32"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C15" s="32"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C16" s="32"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C17" s="32"/>
+    <row r="13" spans="2:6" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="39"/>
+      <c r="C13" s="38" t="s">
+        <v>573</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="39"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="39"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="39"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="39"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="39"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="39"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="39"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="39"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="39"/>
+      <c r="C22" s="38" t="s">
+        <v>572</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23" s="39"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="39"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="39"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="48" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B26" s="39"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="48" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B27" s="39"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="48" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B28" s="39"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="48" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B29" s="39"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="48" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B30" s="39"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="48" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B31" s="39"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="48" t="s">
+        <v>587</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="C6:C12"/>
-    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="C13:C21"/>
+    <mergeCell ref="C22:C31"/>
+    <mergeCell ref="B6:B31"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7250,279 +7582,279 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{943D7610-2A45-41A6-AEBD-0B6D0CE43DFE}">
   <dimension ref="B6:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="23.26953125" customWidth="1"/>
     <col min="3" max="3" width="21.453125" customWidth="1"/>
-    <col min="4" max="4" width="26.08984375" customWidth="1"/>
+    <col min="4" max="4" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="39" t="s">
-        <v>484</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>487</v>
+      <c r="B7" s="38" t="s">
+        <v>477</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>480</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="2" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="2" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="2" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="2" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="2" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="2" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="2" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="4" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="40"/>
-      <c r="C16" s="39" t="s">
-        <v>488</v>
+      <c r="B16" s="39"/>
+      <c r="C16" s="38" t="s">
+        <v>481</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="2" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="2" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="2" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="2" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="4" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="40"/>
-      <c r="C22" s="39" t="s">
-        <v>489</v>
+      <c r="B22" s="39"/>
+      <c r="C22" s="38" t="s">
+        <v>482</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
+    <row r="23" spans="2:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="2" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="2" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
       <c r="D25" s="2" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="2" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="2" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
       <c r="D28" s="2" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="2" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
+    <row r="31" spans="2:4" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
       <c r="D31" s="2" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B32" s="40"/>
-      <c r="C32" s="39" t="s">
-        <v>490</v>
+      <c r="B32" s="39"/>
+      <c r="C32" s="38" t="s">
+        <v>483</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
       <c r="D33" s="2" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
       <c r="D34" s="2" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
       <c r="D35" s="2" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
       <c r="D36" s="2" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
       <c r="D37" s="2" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
       <c r="D38" s="2" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
       <c r="D39" s="2" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
       <c r="D40" s="2" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
       <c r="D41" s="2" t="s">
         <v>406</v>
       </c>
@@ -7560,202 +7892,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="22"/>
+      <c r="B1" s="22" t="s">
         <v>408</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>409</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>410</v>
       </c>
-      <c r="E1" s="24"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>411</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="24">
         <v>3</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="23">
         <v>24</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>497</v>
-      </c>
-      <c r="E2" s="24"/>
+      <c r="D2" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="24">
         <v>4</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="23">
         <v>35</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="E3" s="24"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>414</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>502</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>503</v>
-      </c>
-      <c r="D4" s="24" t="s">
+      <c r="B4" s="23" t="s">
+        <v>495</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>416</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="30">
         <v>5</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>555</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>556</v>
-      </c>
-      <c r="E5" s="24"/>
+      <c r="C5" s="26" t="s">
+        <v>547</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>548</v>
+      </c>
+      <c r="E5" s="23"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>417</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="24">
         <v>8</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="23">
         <v>64</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>493</v>
-      </c>
-      <c r="E6" s="24"/>
+      <c r="D6" s="23" t="s">
+        <v>486</v>
+      </c>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>418</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="24">
         <v>2</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="23">
         <v>19</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>496</v>
-      </c>
-      <c r="E7" s="24"/>
+      <c r="D7" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>419</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="24">
         <v>2</v>
       </c>
-      <c r="C8" s="27" t="s">
-        <v>501</v>
-      </c>
-      <c r="D8" s="24" t="s">
+      <c r="C8" s="26" t="s">
+        <v>494</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="E8" s="24"/>
+      <c r="E8" s="23"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>407</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="24">
         <v>10</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="23">
         <v>100</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="E9" s="24"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="28">
         <v>48</v>
       </c>
-      <c r="C10" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="24"/>
+      <c r="C10" s="28" t="s">
+        <v>549</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24" t="s">
-        <v>558</v>
-      </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23" t="s">
+        <v>550</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="30" t="s">
-        <v>494</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
+      <c r="A12" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -7767,6 +8099,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98aa5c30-0ca6-4ff6-9f27-712b5f6a60fa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="6eb2050a-b6f7-4b0c-983c-e4078fb34326" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -7775,7 +8118,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010050B7A9603DF1A244B8132CE1C1B398A8" ma:contentTypeVersion="15" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="a440459976170ea38fb7eb2e040ba179">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98aa5c30-0ca6-4ff6-9f27-712b5f6a60fa" xmlns:ns3="6eb2050a-b6f7-4b0c-983c-e4078fb34326" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba382d81cd35db01624f0cbef7b1ab06" ns2:_="" ns3:_="">
     <xsd:import namespace="98aa5c30-0ca6-4ff6-9f27-712b5f6a60fa"/>
@@ -8010,18 +8353,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98aa5c30-0ca6-4ff6-9f27-712b5f6a60fa">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="6eb2050a-b6f7-4b0c-983c-e4078fb34326" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0005A226-8E27-4CCD-8501-04EB607E9F78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="6eb2050a-b6f7-4b0c-983c-e4078fb34326"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="98aa5c30-0ca6-4ff6-9f27-712b5f6a60fa"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B133FF0C-9036-42CF-A0D0-12ED50A1E5CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -8029,7 +8378,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5CA8F08-5604-491E-9806-A7FCFFD8F6BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8048,23 +8397,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0005A226-8E27-4CCD-8501-04EB607E9F78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="6eb2050a-b6f7-4b0c-983c-e4078fb34326"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="98aa5c30-0ca6-4ff6-9f27-712b5f6a60fa"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{42f063bf-ce3a-473c-8609-3866002c85b0}" enabled="1" method="Standard" siteId="{b914a242-e718-443b-a47c-6b4c649d8c0a}" contentBits="0" removed="0"/>

--- a/Mapping FURs and UCs.xlsx
+++ b/Mapping FURs and UCs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fraunhofer.sharepoint.com/sites/TwinEU/Freigegebene Dokumente/WP3 Open Architecture for DT/T3.2/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\projects\TwinEU\WP3\T3.2\!GitHub-Documents\T3.2_Functional_specifications_of_pan-European_DT_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8213" documentId="13_ncr:1_{3B6C9397-F69C-4DD4-B4FA-0A9C38D34D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB64D30D-3645-468B-8BA6-276B28642A39}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82DBD0CE-BC86-482B-AC29-44A765F304F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{1EC336E7-9B8F-4023-BA48-614D005FA557}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="11440" activeTab="3" xr2:uid="{1EC336E7-9B8F-4023-BA48-614D005FA557}"/>
   </bookViews>
   <sheets>
     <sheet name="Ge FURs" sheetId="3" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="586">
   <si>
     <t>Functional Requirements</t>
   </si>
@@ -948,9 +948,6 @@
   </si>
   <si>
     <t>Rule-Based System Utilization</t>
-  </si>
-  <si>
-    <t>EACL-IT-01(T6.2.1)</t>
   </si>
   <si>
     <t>DT-O&amp;M-01-EACL-IT-01-02</t>
@@ -974,21 +971,6 @@
     <t>LOIN  (Level of Information Need)</t>
   </si>
   <si>
-    <t>EACL-IT-01(T6.2.2)</t>
-  </si>
-  <si>
-    <t>EACL-IT-02(T6.2.1)</t>
-  </si>
-  <si>
-    <t>EACL-IT-02(T6.2.2)</t>
-  </si>
-  <si>
-    <t>EACL-IT-03(T6.2.1)</t>
-  </si>
-  <si>
-    <t>EACL-IT-03(T6.2.2)</t>
-  </si>
-  <si>
     <t>DT-O&amp;M-03-IT02-01</t>
   </si>
   <si>
@@ -1311,9 +1293,6 @@
     <t>Iberian pilot</t>
   </si>
   <si>
-    <t>(99+7)</t>
-  </si>
-  <si>
     <t>Italian pilot</t>
   </si>
   <si>
@@ -1324,9 +1303,6 @@
   </si>
   <si>
     <t>Hungarian pilot</t>
-  </si>
-  <si>
-    <t>(+7)</t>
   </si>
   <si>
     <t>(+100)</t>
@@ -1501,15 +1477,6 @@
 Digital Twin for design validation</t>
   </si>
   <si>
-    <t xml:space="preserve">SLO-UC-1 - 
-Dynamic RMS Analysis with Upgraded Transmission System Model 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLO-UC-2 - 
-Real-time Dynamic RMS Analysis with Transmission System Model improved with the dynamic parameters of generators and control models of the neighbouring TSOs </t>
-  </si>
-  <si>
     <t>DT-CYB-01-NL01-08</t>
   </si>
   <si>
@@ -1532,10 +1499,6 @@
   <si>
     <t xml:space="preserve">NL02 - 
 DT-based dynamic stability assessment under active power flow changing events. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HU01 DT1 - 
-Digital twin for power line monitoring </t>
   </si>
   <si>
     <t>Eastern-Mediterranean 
@@ -1572,31 +1535,7 @@
     <t>DT-O&amp;M-04-GE-32</t>
   </si>
   <si>
-    <t>(32+26+6)</t>
-  </si>
-  <si>
-    <t>new:</t>
-  </si>
-  <si>
-    <t>validated SLO</t>
-  </si>
-  <si>
-    <t>(10+9)</t>
-  </si>
-  <si>
     <t>(11+8+5)</t>
-  </si>
-  <si>
-    <t>Ib - 7 to be validated</t>
-  </si>
-  <si>
-    <t>It - 15 to be validated</t>
-  </si>
-  <si>
-    <t>1 Italian new pilot not in T2.4 folder</t>
-  </si>
-  <si>
-    <t>7+8</t>
   </si>
   <si>
     <r>
@@ -1633,18 +1572,6 @@
     </r>
   </si>
   <si>
-    <t>106+7</t>
-  </si>
-  <si>
-    <t>1 Hungarian UC is missing description, very little information</t>
-  </si>
-  <si>
-    <t>8 unvalidated FURs</t>
-  </si>
-  <si>
-    <t>7 unvalidated FURs</t>
-  </si>
-  <si>
     <t>Meeting</t>
   </si>
   <si>
@@ -1811,18 +1738,6 @@
   <si>
     <t>Discuss and get feedback for 
 created GSUCs and GFURs</t>
-  </si>
-  <si>
-    <t>21+15</t>
-  </si>
-  <si>
-    <t>(10+4+7)</t>
-  </si>
-  <si>
-    <t>376+7+15+8</t>
-  </si>
-  <si>
-    <t>376 validated FURs, plus 7+15+8 not validated FURs</t>
   </si>
   <si>
     <t>If you were using the old numbering, this one was erased from the list</t>
@@ -1912,83 +1827,144 @@
     <t>Power system analysis tool retrieves operational data from SCADA/EMS</t>
   </si>
   <si>
-    <t>SLO-SUC-1 - 
+    <t>DT-F&amp;OG-02-HU-01</t>
+  </si>
+  <si>
+    <t>DT-F&amp;OG-02-HU-02</t>
+  </si>
+  <si>
+    <t>DT-F&amp;OG-02-HU-03</t>
+  </si>
+  <si>
+    <t>DT-F&amp;OG-02-HU-04</t>
+  </si>
+  <si>
+    <t>DT-F&amp;OG-02-HU-05</t>
+  </si>
+  <si>
+    <t>DT-F&amp;OG-02-HU-06</t>
+  </si>
+  <si>
+    <t>DT-F&amp;OG-02-HU-07</t>
+  </si>
+  <si>
+    <t>DT-F&amp;OG-02-HU-08</t>
+  </si>
+  <si>
+    <t>DT-F&amp;OG-02-HU-09</t>
+  </si>
+  <si>
+    <t>DT-F&amp;OG-02-HU-10</t>
+  </si>
+  <si>
+    <t>DT-F&amp;OG-02-HU-11</t>
+  </si>
+  <si>
+    <t>DT-F&amp;OG-02-HU-12</t>
+  </si>
+  <si>
+    <t>DT-F&amp;OG-02-HU-13</t>
+  </si>
+  <si>
+    <t>DT-F&amp;OG-02-HU-14</t>
+  </si>
+  <si>
+    <t>DT-F&amp;OG-02-HU-15</t>
+  </si>
+  <si>
+    <t>DT-F&amp;OG-02-HU-16</t>
+  </si>
+  <si>
+    <t>DT-F&amp;OG-02-HU-17</t>
+  </si>
+  <si>
+    <t>DT-F&amp;OG-02-HU-18</t>
+  </si>
+  <si>
+    <t>DT-F&amp;OG-02-HU-19</t>
+  </si>
+  <si>
+    <t>DT-SC&amp;PG-03&amp;04-IB-100</t>
+  </si>
+  <si>
+    <t>DT-SC&amp;PG-03&amp;04-IB-101</t>
+  </si>
+  <si>
+    <t>DT-SC&amp;PG-03&amp;04-IB-102</t>
+  </si>
+  <si>
+    <t>DT-SC&amp;PG-03&amp;04-IB-103</t>
+  </si>
+  <si>
+    <t>DT-SC&amp;PG-03&amp;04-IB-104</t>
+  </si>
+  <si>
+    <t>DT-SC&amp;PG-03&amp;04-IB-105</t>
+  </si>
+  <si>
+    <t>DT-SC&amp;PG-03&amp;04-IB-106</t>
+  </si>
+  <si>
+    <t>DT-SC&amp;PG-03&amp;04-IB-107</t>
+  </si>
+  <si>
+    <t>DT-O&amp;M-01-EACL-IT-03-01</t>
+  </si>
+  <si>
+    <t>DT-O&amp;M-01-EACL-IT-03-02</t>
+  </si>
+  <si>
+    <t>DT-O&amp;M-01-EACL-IT-03-03</t>
+  </si>
+  <si>
+    <t>DT-O&amp;M-01-EACL-IT-03-04</t>
+  </si>
+  <si>
+    <t>SLO-BUC-3 - 
 Power system analysis</t>
   </si>
   <si>
-    <t>HU03 -
+    <t xml:space="preserve">SLO-BUC-1 - 
+Dynamic RMS Analysis with Upgraded Transmission System Model 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLO-BUC-2 - 
+Real-time Dynamic RMS Analysis with Transmission System Model improved with the dynamic parameters of generators and control models of the neighbouring TSOs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu01 DT1 - 
+Digital twin for power line monitoring </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu02 - 
+Enhanced flow-based capacity calculation for market co-optimization using DLR data  </t>
+  </si>
+  <si>
+    <t>Hu03 -
 Co-optimizing the energy and balancing capacity market coupling with dynamic flow-based auction</t>
   </si>
   <si>
-    <t xml:space="preserve">HU02 - 
-Enhanced flow-based capacity calculation for market co-optimization using DLR data  </t>
-  </si>
-  <si>
-    <t>DT-F&amp;OG-02-HU-01</t>
-  </si>
-  <si>
-    <t>DT-F&amp;OG-02-HU-02</t>
-  </si>
-  <si>
-    <t>DT-F&amp;OG-02-HU-03</t>
-  </si>
-  <si>
-    <t>DT-F&amp;OG-02-HU-04</t>
-  </si>
-  <si>
-    <t>DT-F&amp;OG-02-HU-05</t>
-  </si>
-  <si>
-    <t>DT-F&amp;OG-02-HU-06</t>
-  </si>
-  <si>
-    <t>DT-F&amp;OG-02-HU-07</t>
-  </si>
-  <si>
-    <t>DT-F&amp;OG-02-HU-08</t>
-  </si>
-  <si>
-    <t>DT-F&amp;OG-02-HU-09</t>
-  </si>
-  <si>
-    <t>DT-F&amp;OG-02-HU-10</t>
-  </si>
-  <si>
-    <t>DT-F&amp;OG-02-HU-11</t>
-  </si>
-  <si>
-    <t>DT-F&amp;OG-02-HU-12</t>
-  </si>
-  <si>
-    <t>DT-F&amp;OG-02-HU-13</t>
-  </si>
-  <si>
-    <t>DT-F&amp;OG-02-HU-14</t>
-  </si>
-  <si>
-    <t>DT-F&amp;OG-02-HU-15</t>
-  </si>
-  <si>
-    <t>DT-F&amp;OG-02-HU-16</t>
-  </si>
-  <si>
-    <t>DT-F&amp;OG-02-HU-17</t>
-  </si>
-  <si>
-    <t>DT-F&amp;OG-02-HU-18</t>
-  </si>
-  <si>
-    <t>DT-F&amp;OG-02-HU-19</t>
-  </si>
-  <si>
-    <t>10 unvalidated FURs</t>
+    <t>(19+7)</t>
+  </si>
+  <si>
+    <t>(10+9+9)</t>
+  </si>
+  <si>
+    <t>107+7)</t>
+  </si>
+  <si>
+    <t>(32+27+6)</t>
+  </si>
+  <si>
+    <t>(10+6+5+13+3)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2063,6 +2039,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2101,7 +2096,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2217,13 +2212,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2234,7 +2242,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2283,13 +2290,34 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2317,28 +2345,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
@@ -2692,632 +2710,632 @@
       <c r="C1" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>424</v>
+      <c r="C3" s="20" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>428</v>
+      <c r="A4" s="38" t="s">
+        <v>410</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>420</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="33"/>
-      <c r="B11" s="35" t="s">
-        <v>429</v>
+      <c r="A11" s="39"/>
+      <c r="B11" s="41" t="s">
+        <v>421</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="33"/>
-      <c r="B22" s="34"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="33"/>
-      <c r="B23" s="35" t="s">
-        <v>430</v>
+      <c r="A23" s="39"/>
+      <c r="B23" s="41" t="s">
+        <v>422</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
       <c r="C26" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
       <c r="C29" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
       <c r="C30" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
       <c r="C32" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="39"/>
       <c r="C34" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="39"/>
       <c r="C35" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="33"/>
-      <c r="B36" s="34"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="40"/>
       <c r="C36" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="33"/>
-      <c r="B37" s="35" t="s">
-        <v>431</v>
+      <c r="A37" s="39"/>
+      <c r="B37" s="41" t="s">
+        <v>423</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="33"/>
-      <c r="B38" s="36"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="42"/>
       <c r="C38" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="33"/>
-      <c r="B39" s="36"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="42"/>
       <c r="C39" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="33"/>
-      <c r="B40" s="36"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="42"/>
       <c r="C40" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="33"/>
-      <c r="B41" s="36"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="42"/>
       <c r="C41" s="4" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="33"/>
-      <c r="B42" s="36"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="42"/>
       <c r="C42" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="33"/>
-      <c r="B43" s="36"/>
+      <c r="A43" s="39"/>
+      <c r="B43" s="42"/>
       <c r="C43" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="33"/>
-      <c r="B44" s="36"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="42"/>
       <c r="C44" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="33"/>
-      <c r="B45" s="36"/>
+      <c r="A45" s="39"/>
+      <c r="B45" s="42"/>
       <c r="C45" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="33"/>
-      <c r="B46" s="36"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="42"/>
       <c r="C46" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="33"/>
-      <c r="B47" s="37"/>
+      <c r="A47" s="39"/>
+      <c r="B47" s="43"/>
       <c r="C47" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="33"/>
-      <c r="B48" s="35" t="s">
-        <v>432</v>
+      <c r="A48" s="39"/>
+      <c r="B48" s="41" t="s">
+        <v>424</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="33"/>
-      <c r="B49" s="33"/>
+      <c r="A49" s="39"/>
+      <c r="B49" s="39"/>
       <c r="C49" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="33"/>
-      <c r="B50" s="33"/>
+      <c r="A50" s="39"/>
+      <c r="B50" s="39"/>
       <c r="C50" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="33"/>
-      <c r="B51" s="33"/>
+      <c r="A51" s="39"/>
+      <c r="B51" s="39"/>
       <c r="C51" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="33"/>
-      <c r="B52" s="33"/>
+      <c r="A52" s="39"/>
+      <c r="B52" s="39"/>
       <c r="C52" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="33"/>
-      <c r="B53" s="33"/>
+      <c r="A53" s="39"/>
+      <c r="B53" s="39"/>
       <c r="C53" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="33"/>
-      <c r="B54" s="33"/>
+      <c r="A54" s="39"/>
+      <c r="B54" s="39"/>
       <c r="C54" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="33"/>
-      <c r="B55" s="33"/>
+      <c r="A55" s="39"/>
+      <c r="B55" s="39"/>
       <c r="C55" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="33"/>
-      <c r="B56" s="33"/>
+      <c r="A56" s="39"/>
+      <c r="B56" s="39"/>
       <c r="C56" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="33"/>
-      <c r="B57" s="33"/>
+      <c r="A57" s="39"/>
+      <c r="B57" s="39"/>
       <c r="C57" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="33"/>
-      <c r="B58" s="33"/>
+      <c r="A58" s="39"/>
+      <c r="B58" s="39"/>
       <c r="C58" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="33"/>
-      <c r="B59" s="34"/>
+      <c r="A59" s="39"/>
+      <c r="B59" s="40"/>
       <c r="C59" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="33"/>
-      <c r="B60" s="35" t="s">
-        <v>433</v>
+      <c r="A60" s="39"/>
+      <c r="B60" s="41" t="s">
+        <v>425</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="33"/>
-      <c r="B61" s="36"/>
+      <c r="A61" s="39"/>
+      <c r="B61" s="42"/>
       <c r="C61" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="33"/>
-      <c r="B62" s="36"/>
+      <c r="A62" s="39"/>
+      <c r="B62" s="42"/>
       <c r="C62" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="33"/>
-      <c r="B63" s="36"/>
+      <c r="A63" s="39"/>
+      <c r="B63" s="42"/>
       <c r="C63" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="33"/>
-      <c r="B64" s="36"/>
+      <c r="A64" s="39"/>
+      <c r="B64" s="42"/>
       <c r="C64" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="33"/>
-      <c r="B65" s="36"/>
+      <c r="A65" s="39"/>
+      <c r="B65" s="42"/>
       <c r="C65" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="33"/>
-      <c r="B66" s="36"/>
+      <c r="A66" s="39"/>
+      <c r="B66" s="42"/>
       <c r="C66" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="33"/>
-      <c r="B67" s="36"/>
+      <c r="A67" s="39"/>
+      <c r="B67" s="42"/>
       <c r="C67" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="33"/>
-      <c r="B68" s="36"/>
+      <c r="A68" s="39"/>
+      <c r="B68" s="42"/>
       <c r="C68" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="33"/>
-      <c r="B69" s="36"/>
+      <c r="A69" s="39"/>
+      <c r="B69" s="42"/>
       <c r="C69" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="33"/>
-      <c r="B70" s="36"/>
+      <c r="A70" s="39"/>
+      <c r="B70" s="42"/>
       <c r="C70" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="33"/>
-      <c r="B71" s="36"/>
+      <c r="A71" s="39"/>
+      <c r="B71" s="42"/>
       <c r="C71" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="33"/>
-      <c r="B72" s="37"/>
+      <c r="A72" s="39"/>
+      <c r="B72" s="43"/>
       <c r="C72" s="2" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="33"/>
-      <c r="B73" s="35" t="s">
-        <v>434</v>
+      <c r="A73" s="39"/>
+      <c r="B73" s="41" t="s">
+        <v>426</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="33"/>
-      <c r="B74" s="33"/>
+      <c r="A74" s="39"/>
+      <c r="B74" s="39"/>
       <c r="C74" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="33"/>
-      <c r="B75" s="33"/>
+      <c r="A75" s="39"/>
+      <c r="B75" s="39"/>
       <c r="C75" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="33"/>
-      <c r="B76" s="33"/>
+      <c r="A76" s="39"/>
+      <c r="B76" s="39"/>
       <c r="C76" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="33"/>
-      <c r="B77" s="33"/>
+      <c r="A77" s="39"/>
+      <c r="B77" s="39"/>
       <c r="C77" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="33"/>
-      <c r="B78" s="33"/>
+      <c r="A78" s="39"/>
+      <c r="B78" s="39"/>
       <c r="C78" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="33"/>
-      <c r="B79" s="33"/>
+      <c r="A79" s="39"/>
+      <c r="B79" s="39"/>
       <c r="C79" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="33"/>
-      <c r="B80" s="33"/>
+      <c r="A80" s="39"/>
+      <c r="B80" s="39"/>
       <c r="C80" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="33"/>
-      <c r="B81" s="33"/>
+      <c r="A81" s="39"/>
+      <c r="B81" s="39"/>
       <c r="C81" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="33"/>
-      <c r="B82" s="34"/>
-      <c r="C82" s="11" t="s">
+      <c r="A82" s="39"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="33"/>
-      <c r="B83" s="35" t="s">
-        <v>435</v>
+      <c r="A83" s="39"/>
+      <c r="B83" s="41" t="s">
+        <v>427</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="33"/>
-      <c r="B84" s="33"/>
+      <c r="A84" s="39"/>
+      <c r="B84" s="39"/>
       <c r="C84" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" s="33"/>
-      <c r="B85" s="33"/>
+      <c r="A85" s="39"/>
+      <c r="B85" s="39"/>
       <c r="C85" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" s="33"/>
-      <c r="B86" s="33"/>
+      <c r="A86" s="39"/>
+      <c r="B86" s="39"/>
       <c r="C86" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" s="33"/>
-      <c r="B87" s="33"/>
+      <c r="A87" s="39"/>
+      <c r="B87" s="39"/>
       <c r="C87" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" s="33"/>
-      <c r="B88" s="33"/>
+      <c r="A88" s="39"/>
+      <c r="B88" s="39"/>
       <c r="C88" s="2" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="34"/>
-      <c r="B89" s="34"/>
+      <c r="A89" s="40"/>
+      <c r="B89" s="40"/>
       <c r="C89" s="2" t="s">
         <v>62</v>
       </c>
@@ -3359,17 +3377,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="17" t="s">
-        <v>500</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>503</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>502</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>501</v>
+      <c r="B3" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
@@ -3377,16 +3395,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>504</v>
+        <v>481</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>530</v>
+        <v>507</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>505</v>
+        <v>482</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
@@ -3394,16 +3412,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>507</v>
+        <v>484</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>508</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="145" x14ac:dyDescent="0.35">
@@ -3411,16 +3429,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>509</v>
+        <v>486</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>528</v>
+        <v>505</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>510</v>
+        <v>487</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
@@ -3428,16 +3446,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>511</v>
+        <v>488</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>527</v>
+        <v>504</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>512</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
@@ -3445,16 +3463,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>513</v>
+        <v>490</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>526</v>
+        <v>503</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>514</v>
+        <v>491</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
@@ -3462,16 +3480,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>515</v>
+        <v>492</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>525</v>
+        <v>502</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>516</v>
+        <v>493</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
@@ -3479,16 +3497,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>518</v>
+        <v>495</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>524</v>
+        <v>501</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>517</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
@@ -3496,16 +3514,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>519</v>
+        <v>496</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>523</v>
+        <v>500</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>520</v>
+        <v>497</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -3513,16 +3531,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>531</v>
+        <v>508</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>522</v>
+        <v>499</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>521</v>
+        <v>498</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>532</v>
+        <v>509</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="174" x14ac:dyDescent="0.35">
@@ -3530,16 +3548,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>535</v>
+        <v>512</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>534</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
@@ -3547,16 +3565,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>536</v>
+        <v>513</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>537</v>
+        <v>514</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>538</v>
+        <v>515</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -3564,16 +3582,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>539</v>
+        <v>516</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>540</v>
+        <v>517</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>542</v>
+        <v>519</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>541</v>
+        <v>518</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
@@ -3581,16 +3599,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>543</v>
+        <v>520</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>544</v>
+        <v>521</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>546</v>
+        <v>523</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>545</v>
+        <v>522</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
@@ -3966,10 +3984,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9766A069-D772-4BE6-B27B-4A655A8CB13D}">
-  <dimension ref="B2:H134"/>
+  <dimension ref="B2:H135"/>
   <sheetViews>
-    <sheetView zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D126" sqref="B2:D132"/>
+    <sheetView topLeftCell="A66" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C126" sqref="C126:C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3979,980 +3997,998 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>424</v>
+      <c r="D2" s="13" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="39" t="s">
-        <v>414</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>436</v>
+      <c r="B3" s="45" t="s">
+        <v>408</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>428</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
       <c r="D4" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="39"/>
-      <c r="C10" s="38" t="s">
-        <v>437</v>
+      <c r="B10" s="45"/>
+      <c r="C10" s="44" t="s">
+        <v>429</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="39"/>
-      <c r="C16" s="38" t="s">
-        <v>438</v>
+      <c r="B16" s="45"/>
+      <c r="C16" s="44" t="s">
+        <v>430</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
       <c r="D23" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
       <c r="D24" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
       <c r="D25" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
       <c r="D29" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
       <c r="D30" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
       <c r="D31" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B32" s="39"/>
-      <c r="C32" s="38" t="s">
-        <v>439</v>
+      <c r="B32" s="45"/>
+      <c r="C32" s="44" t="s">
+        <v>431</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
       <c r="D33" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
       <c r="D34" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
       <c r="D35" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
       <c r="D36" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
       <c r="D37" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
       <c r="D38" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
       <c r="D39" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="39"/>
-      <c r="C40" s="38" t="s">
-        <v>440</v>
+      <c r="B40" s="45"/>
+      <c r="C40" s="44" t="s">
+        <v>432</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
       <c r="D41" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
       <c r="D42" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
       <c r="D43" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
       <c r="D44" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
       <c r="D45" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B46" s="39"/>
-      <c r="C46" s="38" t="s">
-        <v>441</v>
+      <c r="B46" s="45"/>
+      <c r="C46" s="44" t="s">
+        <v>433</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
       <c r="D47" s="2" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
       <c r="D48" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
       <c r="D49" s="5" t="s">
         <v>99</v>
       </c>
       <c r="H49" t="s">
-        <v>552</v>
+        <v>525</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
       <c r="D50" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
       <c r="D51" s="5" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="45"/>
       <c r="D52" s="5" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="45"/>
       <c r="D53" s="5" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
       <c r="D54" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="45"/>
       <c r="D55" s="5" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="45"/>
       <c r="D56" s="5" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="45"/>
       <c r="D57" s="5" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B58" s="39"/>
-      <c r="C58" s="38" t="s">
-        <v>442</v>
+      <c r="B58" s="45"/>
+      <c r="C58" s="44" t="s">
+        <v>434</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="45"/>
       <c r="D59" s="2" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B60" s="39"/>
-      <c r="C60" s="39"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="45"/>
       <c r="D60" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="45"/>
       <c r="D61" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B62" s="39"/>
-      <c r="C62" s="39"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="45"/>
       <c r="D62" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B63" s="39"/>
-      <c r="C63" s="39"/>
+      <c r="B63" s="45"/>
+      <c r="C63" s="45"/>
       <c r="D63" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B64" s="39"/>
-      <c r="C64" s="39"/>
+      <c r="B64" s="45"/>
+      <c r="C64" s="45"/>
       <c r="D64" s="5" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B65" s="39"/>
-      <c r="C65" s="39"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="45"/>
       <c r="D65" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
+      <c r="B66" s="45"/>
+      <c r="C66" s="45"/>
       <c r="D66" s="5" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B67" s="39"/>
-      <c r="C67" s="39"/>
+      <c r="B67" s="45"/>
+      <c r="C67" s="45"/>
       <c r="D67" s="5" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B68" s="39"/>
-      <c r="C68" s="39"/>
+      <c r="B68" s="45"/>
+      <c r="C68" s="45"/>
       <c r="D68" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B69" s="39"/>
-      <c r="C69" s="40" t="s">
-        <v>553</v>
+      <c r="B69" s="45"/>
+      <c r="C69" s="46" t="s">
+        <v>526</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B70" s="39"/>
-      <c r="C70" s="39"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="45"/>
       <c r="D70" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B71" s="39"/>
-      <c r="C71" s="39"/>
+      <c r="B71" s="45"/>
+      <c r="C71" s="45"/>
       <c r="D71" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B72" s="39"/>
-      <c r="C72" s="39"/>
+      <c r="B72" s="45"/>
+      <c r="C72" s="45"/>
       <c r="D72" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B73" s="39"/>
-      <c r="C73" s="39"/>
+      <c r="B73" s="45"/>
+      <c r="C73" s="45"/>
       <c r="D73" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B74" s="39"/>
-      <c r="C74" s="39"/>
+      <c r="B74" s="45"/>
+      <c r="C74" s="45"/>
       <c r="D74" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B75" s="39"/>
-      <c r="C75" s="40" t="s">
-        <v>554</v>
+      <c r="B75" s="45"/>
+      <c r="C75" s="46" t="s">
+        <v>527</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B76" s="39"/>
-      <c r="C76" s="39"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="45"/>
       <c r="D76" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B77" s="39"/>
-      <c r="C77" s="39"/>
+      <c r="B77" s="45"/>
+      <c r="C77" s="45"/>
       <c r="D77" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B78" s="39"/>
-      <c r="C78" s="39"/>
+      <c r="B78" s="45"/>
+      <c r="C78" s="45"/>
       <c r="D78" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="79" spans="2:4" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="39"/>
-      <c r="C79" s="39"/>
+      <c r="B79" s="45"/>
+      <c r="C79" s="45"/>
       <c r="D79" s="2" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B80" s="39"/>
-      <c r="C80" s="39"/>
+      <c r="B80" s="45"/>
+      <c r="C80" s="45"/>
       <c r="D80" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B81" s="39"/>
-      <c r="C81" s="39"/>
+      <c r="B81" s="45"/>
+      <c r="C81" s="45"/>
       <c r="D81" s="2" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B82" s="39"/>
-      <c r="C82" s="39"/>
+      <c r="B82" s="45"/>
+      <c r="C82" s="45"/>
       <c r="D82" s="2" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B83" s="39"/>
-      <c r="C83" s="39"/>
+      <c r="B83" s="45"/>
+      <c r="C83" s="45"/>
       <c r="D83" s="2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B84" s="39"/>
-      <c r="C84" s="39"/>
+      <c r="B84" s="45"/>
+      <c r="C84" s="45"/>
       <c r="D84" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B85" s="39"/>
-      <c r="C85" s="39"/>
+      <c r="B85" s="45"/>
+      <c r="C85" s="45"/>
       <c r="D85" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B86" s="39"/>
-      <c r="C86" s="39"/>
+      <c r="B86" s="45"/>
+      <c r="C86" s="45"/>
       <c r="D86" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B87" s="39"/>
-      <c r="C87" s="40" t="s">
-        <v>555</v>
+      <c r="B87" s="45"/>
+      <c r="C87" s="46" t="s">
+        <v>528</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B88" s="39"/>
-      <c r="C88" s="39"/>
+      <c r="B88" s="45"/>
+      <c r="C88" s="45"/>
       <c r="D88" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B89" s="39"/>
-      <c r="C89" s="39"/>
+      <c r="B89" s="45"/>
+      <c r="C89" s="45"/>
       <c r="D89" s="2" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B90" s="39"/>
-      <c r="C90" s="39"/>
+      <c r="B90" s="45"/>
+      <c r="C90" s="45"/>
       <c r="D90" s="2" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B91" s="39"/>
-      <c r="C91" s="39"/>
+      <c r="B91" s="45"/>
+      <c r="C91" s="45"/>
       <c r="D91" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B92" s="39"/>
-      <c r="C92" s="39"/>
+      <c r="B92" s="45"/>
+      <c r="C92" s="45"/>
       <c r="D92" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B93" s="39"/>
-      <c r="C93" s="40" t="s">
-        <v>556</v>
+      <c r="B93" s="45"/>
+      <c r="C93" s="46" t="s">
+        <v>529</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B94" s="39"/>
-      <c r="C94" s="39"/>
+      <c r="B94" s="45"/>
+      <c r="C94" s="45"/>
       <c r="D94" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B95" s="39"/>
-      <c r="C95" s="39"/>
+      <c r="B95" s="45"/>
+      <c r="C95" s="45"/>
       <c r="D95" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B96" s="39"/>
-      <c r="C96" s="39"/>
+      <c r="B96" s="45"/>
+      <c r="C96" s="45"/>
       <c r="D96" s="2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B97" s="39"/>
-      <c r="C97" s="39"/>
+      <c r="B97" s="45"/>
+      <c r="C97" s="45"/>
       <c r="D97" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B98" s="39"/>
-      <c r="C98" s="39"/>
+      <c r="B98" s="45"/>
+      <c r="C98" s="45"/>
       <c r="D98" s="2" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B99" s="39"/>
-      <c r="C99" s="39"/>
+      <c r="B99" s="45"/>
+      <c r="C99" s="45"/>
       <c r="D99" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B100" s="39"/>
-      <c r="C100" s="39"/>
+      <c r="B100" s="45"/>
+      <c r="C100" s="45"/>
       <c r="D100" s="2" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B101" s="39"/>
-      <c r="C101" s="39"/>
+      <c r="B101" s="45"/>
+      <c r="C101" s="45"/>
       <c r="D101" s="2" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B102" s="39"/>
-      <c r="C102" s="39"/>
+      <c r="B102" s="45"/>
+      <c r="C102" s="45"/>
       <c r="D102" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B103" s="39"/>
-      <c r="C103" s="40" t="s">
-        <v>559</v>
+      <c r="B103" s="45"/>
+      <c r="C103" s="46" t="s">
+        <v>532</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B104" s="39"/>
-      <c r="C104" s="39"/>
+      <c r="B104" s="45"/>
+      <c r="C104" s="45"/>
       <c r="D104" s="2" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B105" s="39"/>
-      <c r="C105" s="39"/>
+      <c r="B105" s="45"/>
+      <c r="C105" s="45"/>
       <c r="D105" s="2" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B106" s="39"/>
-      <c r="C106" s="39"/>
+      <c r="B106" s="45"/>
+      <c r="C106" s="45"/>
       <c r="D106" s="2" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B107" s="39"/>
-      <c r="C107" s="39"/>
+      <c r="B107" s="45"/>
+      <c r="C107" s="45"/>
       <c r="D107" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B108" s="39"/>
-      <c r="C108" s="39"/>
+      <c r="B108" s="45"/>
+      <c r="C108" s="45"/>
       <c r="D108" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B109" s="39"/>
-      <c r="C109" s="39"/>
+      <c r="B109" s="45"/>
+      <c r="C109" s="45"/>
       <c r="D109" s="2" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B110" s="39"/>
-      <c r="C110" s="39"/>
+      <c r="B110" s="45"/>
+      <c r="C110" s="45"/>
       <c r="D110" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B111" s="39"/>
-      <c r="C111" s="39"/>
+      <c r="B111" s="45"/>
+      <c r="C111" s="45"/>
       <c r="D111" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B112" s="39"/>
-      <c r="C112" s="39"/>
+      <c r="B112" s="45"/>
+      <c r="C112" s="45"/>
       <c r="D112" s="2" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B113" s="39"/>
-      <c r="C113" s="40" t="s">
-        <v>557</v>
+      <c r="B113" s="45"/>
+      <c r="C113" s="46" t="s">
+        <v>530</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B114" s="39"/>
-      <c r="C114" s="39"/>
+      <c r="B114" s="45"/>
+      <c r="C114" s="45"/>
       <c r="D114" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B115" s="39"/>
-      <c r="C115" s="39"/>
+      <c r="B115" s="45"/>
+      <c r="C115" s="45"/>
       <c r="D115" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B116" s="39"/>
-      <c r="C116" s="39"/>
+      <c r="B116" s="45"/>
+      <c r="C116" s="45"/>
       <c r="D116" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B117" s="39"/>
-      <c r="C117" s="39"/>
+      <c r="B117" s="45"/>
+      <c r="C117" s="45"/>
       <c r="D117" s="2" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B118" s="39"/>
-      <c r="C118" s="39"/>
+      <c r="B118" s="45"/>
+      <c r="C118" s="45"/>
       <c r="D118" s="2" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B119" s="39"/>
-      <c r="C119" s="39"/>
+      <c r="B119" s="45"/>
+      <c r="C119" s="45"/>
       <c r="D119" s="2" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B120" s="39"/>
-      <c r="C120" s="39"/>
+      <c r="B120" s="45"/>
+      <c r="C120" s="45"/>
       <c r="D120" s="2" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B121" s="39"/>
-      <c r="C121" s="39"/>
+      <c r="B121" s="45"/>
+      <c r="C121" s="45"/>
       <c r="D121" s="2" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B122" s="39"/>
-      <c r="C122" s="39"/>
+      <c r="B122" s="45"/>
+      <c r="C122" s="45"/>
       <c r="D122" s="2" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B123" s="39"/>
-      <c r="C123" s="39"/>
+      <c r="B123" s="45"/>
+      <c r="C123" s="45"/>
       <c r="D123" s="2" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B124" s="39"/>
-      <c r="C124" s="39"/>
+      <c r="B124" s="45"/>
+      <c r="C124" s="45"/>
       <c r="D124" s="2" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B125" s="39"/>
-      <c r="C125" s="39"/>
+      <c r="B125" s="45"/>
+      <c r="C125" s="45"/>
       <c r="D125" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B126" s="39"/>
-      <c r="C126" s="40" t="s">
-        <v>558</v>
-      </c>
-      <c r="D126" s="39" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B127" s="39"/>
-      <c r="C127" s="39"/>
-      <c r="D127" s="39"/>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B128" s="39"/>
-      <c r="C128" s="39"/>
-      <c r="D128" s="39"/>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B129" s="39"/>
-      <c r="C129" s="39"/>
-      <c r="D129" s="39"/>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B130" s="39"/>
-      <c r="C130" s="39"/>
-      <c r="D130" s="39"/>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B131" s="39"/>
-      <c r="C131" s="39"/>
-      <c r="D131" s="39"/>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B132" s="39"/>
-      <c r="C132" s="39"/>
-      <c r="D132" s="39"/>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
+    <row r="126" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B126" s="45"/>
+      <c r="C126" s="46" t="s">
+        <v>531</v>
+      </c>
+      <c r="D126" s="33" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B127" s="45"/>
+      <c r="C127" s="45"/>
+      <c r="D127" s="33" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B128" s="45"/>
+      <c r="C128" s="45"/>
+      <c r="D128" s="34" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B129" s="45"/>
+      <c r="C129" s="45"/>
+      <c r="D129" s="34" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B130" s="45"/>
+      <c r="C130" s="45"/>
+      <c r="D130" s="34" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B131" s="45"/>
+      <c r="C131" s="45"/>
+      <c r="D131" s="34" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B132" s="45"/>
+      <c r="C132" s="45"/>
+      <c r="D132" s="34" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B133" s="45"/>
+      <c r="C133" s="45"/>
+      <c r="D133" s="34" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C134" s="10" t="s">
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C135" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D134" s="5" t="s">
+      <c r="D135" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E134" t="s">
-        <v>551</v>
+      <c r="E135" t="s">
+        <v>524</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="D126:D132"/>
-    <mergeCell ref="C113:C125"/>
-    <mergeCell ref="C103:C112"/>
-    <mergeCell ref="C93:C102"/>
-    <mergeCell ref="C87:C92"/>
+  <mergeCells count="15">
     <mergeCell ref="C16:C31"/>
     <mergeCell ref="C10:C15"/>
     <mergeCell ref="C3:C9"/>
-    <mergeCell ref="B3:B132"/>
-    <mergeCell ref="C126:C132"/>
+    <mergeCell ref="B3:B133"/>
+    <mergeCell ref="C126:C133"/>
     <mergeCell ref="C75:C86"/>
     <mergeCell ref="C69:C74"/>
     <mergeCell ref="C58:C68"/>
     <mergeCell ref="C46:C57"/>
     <mergeCell ref="C40:C45"/>
     <mergeCell ref="C32:C39"/>
+    <mergeCell ref="C113:C125"/>
+    <mergeCell ref="C103:C112"/>
+    <mergeCell ref="C93:C102"/>
+    <mergeCell ref="C87:C92"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4967,7 +5003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7A55FF-A792-4077-B937-72DF4061DB9B}">
   <dimension ref="B8:E159"/>
   <sheetViews>
-    <sheetView topLeftCell="A128" workbookViewId="0">
+    <sheetView topLeftCell="A86" workbookViewId="0">
       <selection activeCell="B10" sqref="B10:E159"/>
     </sheetView>
   </sheetViews>
@@ -4983,99 +5019,99 @@
       <c r="E8" s="1"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B10" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="C10" s="43" t="s">
+      <c r="B10" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="C10" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="14" t="s">
-        <v>424</v>
+      <c r="D10" s="48"/>
+      <c r="E10" s="13" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B11" s="34" t="s">
-        <v>407</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>445</v>
-      </c>
-      <c r="D11" s="41" t="s">
+      <c r="B11" s="40" t="s">
+        <v>401</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>437</v>
+      </c>
+      <c r="D11" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="39"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="42"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="47"/>
       <c r="E12" s="5" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="39"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="47"/>
       <c r="E13" s="5" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="39"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="42"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="5" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B15" s="39"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="42"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="47"/>
       <c r="E15" s="5" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B16" s="39"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="42"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="5" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="39"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="42"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="47"/>
       <c r="E17" s="5" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" s="39"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="42"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="47"/>
       <c r="E18" s="5" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B19" s="39"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="42"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="47"/>
       <c r="E19" s="2" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B20" s="39"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="42" t="s">
+      <c r="B20" s="45"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="47" t="s">
         <v>181</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -5083,91 +5119,91 @@
       </c>
     </row>
     <row r="21" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="39"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="42"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="47"/>
       <c r="E21" s="5" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B22" s="39"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="42"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="47"/>
       <c r="E22" s="5" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="39"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="42"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="47"/>
       <c r="E23" s="5" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B24" s="39"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="42"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="47"/>
       <c r="E24" s="2" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B25" s="39"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="42"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="47"/>
       <c r="E25" s="5" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B26" s="39"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="42"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="47"/>
       <c r="E26" s="5" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B27" s="39"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="42"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="47"/>
       <c r="E27" s="5" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B28" s="39"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="42"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="47"/>
       <c r="E28" s="2" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B29" s="39"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="42"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="47"/>
       <c r="E29" s="2" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B30" s="39"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="42"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="2" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B31" s="39"/>
-      <c r="C31" s="38" t="s">
-        <v>446</v>
-      </c>
-      <c r="D31" s="39" t="s">
+      <c r="B31" s="45"/>
+      <c r="C31" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="D31" s="45" t="s">
         <v>186</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -5175,105 +5211,105 @@
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
       <c r="E32" s="2" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
       <c r="E33" s="2" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
       <c r="E34" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
       <c r="E35" s="2" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
       <c r="E36" s="2" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
       <c r="E37" s="2" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
       <c r="E38" s="2" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
       <c r="E39" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
       <c r="E40" s="2" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
       <c r="E41" s="2" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
       <c r="E42" s="2" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
       <c r="E43" s="2" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39" t="s">
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45" t="s">
         <v>197</v>
       </c>
       <c r="E44" s="2" t="s">
@@ -5281,205 +5317,205 @@
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
       <c r="E45" s="2" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
       <c r="E46" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
       <c r="E47" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
       <c r="E48" s="2" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
       <c r="E49" s="2" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
       <c r="E50" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
       <c r="E51" s="2" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
       <c r="E52" s="2" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
       <c r="E53" s="2" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
       <c r="E54" s="2" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
       <c r="E55" s="2" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
       <c r="E56" s="2" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
       <c r="E57" s="2" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B58" s="39"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
       <c r="E58" s="2" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B59" s="39"/>
-      <c r="C59" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="D59" s="39" t="s">
-        <v>444</v>
+      <c r="B59" s="45"/>
+      <c r="C59" s="44" t="s">
+        <v>439</v>
+      </c>
+      <c r="D59" s="45" t="s">
+        <v>436</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B60" s="39"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
       <c r="E60" s="2" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
       <c r="E61" s="2" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B62" s="39"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="45"/>
       <c r="E62" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B63" s="39"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
+      <c r="B63" s="45"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="45"/>
       <c r="E63" s="2" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B64" s="39"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
+      <c r="B64" s="45"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="45"/>
       <c r="E64" s="2" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B65" s="39"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="45"/>
       <c r="E65" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
+      <c r="B66" s="45"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
       <c r="E66" s="2" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B67" s="39"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
+      <c r="B67" s="45"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="45"/>
       <c r="E67" s="2" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B68" s="39"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
+      <c r="B68" s="45"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="45"/>
       <c r="E68" s="2" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B69" s="39"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="39" t="s">
+      <c r="B69" s="45"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="45" t="s">
         <v>210</v>
       </c>
       <c r="E69" s="2" t="s">
@@ -5487,189 +5523,189 @@
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B70" s="39"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="39"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="45"/>
       <c r="E70" s="2" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B71" s="39"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="39"/>
+      <c r="B71" s="45"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="45"/>
       <c r="E71" s="2" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B72" s="39"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
+      <c r="B72" s="45"/>
+      <c r="C72" s="45"/>
+      <c r="D72" s="45"/>
       <c r="E72" s="2" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B73" s="39"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="39"/>
+      <c r="B73" s="45"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="45"/>
       <c r="E73" s="2" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B74" s="39"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
+      <c r="B74" s="45"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="45"/>
       <c r="E74" s="2" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B75" s="39"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="39"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
       <c r="E75" s="2" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B76" s="39"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="39"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="45"/>
       <c r="E76" s="2" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B77" s="39"/>
-      <c r="C77" s="39"/>
-      <c r="D77" s="39"/>
+      <c r="B77" s="45"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="45"/>
       <c r="E77" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B78" s="39"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="39"/>
+      <c r="B78" s="45"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="45"/>
       <c r="E78" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B79" s="39"/>
-      <c r="C79" s="39"/>
-      <c r="D79" s="39"/>
+      <c r="B79" s="45"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="45"/>
       <c r="E79" s="2" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B80" s="39"/>
-      <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
+      <c r="B80" s="45"/>
+      <c r="C80" s="45"/>
+      <c r="D80" s="45"/>
       <c r="E80" s="2" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B81" s="39"/>
-      <c r="C81" s="38" t="s">
-        <v>448</v>
-      </c>
-      <c r="D81" s="39" t="s">
-        <v>443</v>
+      <c r="B81" s="45"/>
+      <c r="C81" s="44" t="s">
+        <v>440</v>
+      </c>
+      <c r="D81" s="45" t="s">
+        <v>435</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B82" s="39"/>
-      <c r="C82" s="39"/>
-      <c r="D82" s="39"/>
+      <c r="B82" s="45"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="45"/>
       <c r="E82" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B83" s="39"/>
-      <c r="C83" s="39"/>
-      <c r="D83" s="39"/>
+      <c r="B83" s="45"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="45"/>
       <c r="E83" s="2" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B84" s="39"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="39"/>
+      <c r="B84" s="45"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="45"/>
       <c r="E84" s="2" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B85" s="39"/>
-      <c r="C85" s="39"/>
-      <c r="D85" s="39"/>
+      <c r="B85" s="45"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="45"/>
       <c r="E85" s="2" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B86" s="39"/>
-      <c r="C86" s="39"/>
-      <c r="D86" s="39"/>
+      <c r="B86" s="45"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="45"/>
       <c r="E86" s="2" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B87" s="39"/>
-      <c r="C87" s="39"/>
-      <c r="D87" s="39"/>
+      <c r="B87" s="45"/>
+      <c r="C87" s="45"/>
+      <c r="D87" s="45"/>
       <c r="E87" s="2" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B88" s="39"/>
-      <c r="C88" s="39"/>
-      <c r="D88" s="39"/>
+      <c r="B88" s="45"/>
+      <c r="C88" s="45"/>
+      <c r="D88" s="45"/>
       <c r="E88" s="2" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B89" s="39"/>
-      <c r="C89" s="39"/>
-      <c r="D89" s="39"/>
+      <c r="B89" s="45"/>
+      <c r="C89" s="45"/>
+      <c r="D89" s="45"/>
       <c r="E89" s="2" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B90" s="39"/>
-      <c r="C90" s="39"/>
-      <c r="D90" s="39"/>
+      <c r="B90" s="45"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="45"/>
       <c r="E90" s="2" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B91" s="39"/>
-      <c r="C91" s="39"/>
-      <c r="D91" s="39"/>
+      <c r="B91" s="45"/>
+      <c r="C91" s="45"/>
+      <c r="D91" s="45"/>
       <c r="E91" s="2" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B92" s="39"/>
-      <c r="C92" s="39"/>
-      <c r="D92" s="39" t="s">
+      <c r="B92" s="45"/>
+      <c r="C92" s="45"/>
+      <c r="D92" s="45" t="s">
         <v>215</v>
       </c>
       <c r="E92" s="2" t="s">
@@ -5677,556 +5713,555 @@
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B93" s="39"/>
-      <c r="C93" s="39"/>
-      <c r="D93" s="39"/>
+      <c r="B93" s="45"/>
+      <c r="C93" s="45"/>
+      <c r="D93" s="45"/>
       <c r="E93" s="2" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B94" s="39"/>
-      <c r="C94" s="39"/>
-      <c r="D94" s="39"/>
+      <c r="B94" s="45"/>
+      <c r="C94" s="45"/>
+      <c r="D94" s="45"/>
       <c r="E94" s="2" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B95" s="39"/>
-      <c r="C95" s="39"/>
-      <c r="D95" s="39"/>
+      <c r="B95" s="45"/>
+      <c r="C95" s="45"/>
+      <c r="D95" s="45"/>
       <c r="E95" s="2" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B96" s="39"/>
-      <c r="C96" s="39"/>
-      <c r="D96" s="39"/>
+      <c r="B96" s="45"/>
+      <c r="C96" s="45"/>
+      <c r="D96" s="45"/>
       <c r="E96" s="2" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B97" s="39"/>
-      <c r="C97" s="39"/>
-      <c r="D97" s="39"/>
+      <c r="B97" s="45"/>
+      <c r="C97" s="45"/>
+      <c r="D97" s="45"/>
       <c r="E97" s="2" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B98" s="39"/>
-      <c r="C98" s="39"/>
-      <c r="D98" s="39"/>
+      <c r="B98" s="45"/>
+      <c r="C98" s="45"/>
+      <c r="D98" s="45"/>
       <c r="E98" s="2" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B99" s="39"/>
-      <c r="C99" s="39"/>
-      <c r="D99" s="39"/>
+      <c r="B99" s="45"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="45"/>
       <c r="E99" s="2" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B100" s="39"/>
-      <c r="C100" s="39"/>
-      <c r="D100" s="39"/>
+      <c r="B100" s="45"/>
+      <c r="C100" s="45"/>
+      <c r="D100" s="45"/>
       <c r="E100" s="2" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B101" s="39"/>
-      <c r="C101" s="39"/>
-      <c r="D101" s="39"/>
+      <c r="B101" s="45"/>
+      <c r="C101" s="45"/>
+      <c r="D101" s="45"/>
       <c r="E101" s="2" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B102" s="39"/>
-      <c r="C102" s="38" t="s">
-        <v>449</v>
-      </c>
-      <c r="D102" s="39"/>
+      <c r="B102" s="45"/>
+      <c r="C102" s="44" t="s">
+        <v>441</v>
+      </c>
+      <c r="D102" s="45"/>
       <c r="E102" s="2" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B103" s="39"/>
-      <c r="C103" s="39"/>
-      <c r="D103" s="39"/>
+      <c r="B103" s="45"/>
+      <c r="C103" s="45"/>
+      <c r="D103" s="45"/>
       <c r="E103" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B104" s="39"/>
-      <c r="C104" s="39"/>
-      <c r="D104" s="39"/>
+      <c r="B104" s="45"/>
+      <c r="C104" s="45"/>
+      <c r="D104" s="45"/>
       <c r="E104" s="2" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B105" s="39"/>
-      <c r="C105" s="39"/>
-      <c r="D105" s="39"/>
+      <c r="B105" s="45"/>
+      <c r="C105" s="45"/>
+      <c r="D105" s="45"/>
       <c r="E105" s="2" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B106" s="39"/>
-      <c r="C106" s="39"/>
-      <c r="D106" s="39"/>
+      <c r="B106" s="45"/>
+      <c r="C106" s="45"/>
+      <c r="D106" s="45"/>
       <c r="E106" s="2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B107" s="39"/>
-      <c r="C107" s="39"/>
-      <c r="D107" s="39"/>
+      <c r="B107" s="45"/>
+      <c r="C107" s="45"/>
+      <c r="D107" s="45"/>
       <c r="E107" s="2" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B108" s="39"/>
-      <c r="C108" s="39"/>
-      <c r="D108" s="39"/>
+      <c r="B108" s="45"/>
+      <c r="C108" s="45"/>
+      <c r="D108" s="45"/>
       <c r="E108" s="2" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B109" s="39"/>
-      <c r="C109" s="39"/>
-      <c r="D109" s="39"/>
+      <c r="B109" s="45"/>
+      <c r="C109" s="45"/>
+      <c r="D109" s="45"/>
       <c r="E109" s="2" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B110" s="39"/>
-      <c r="C110" s="39"/>
-      <c r="D110" s="39"/>
+      <c r="B110" s="45"/>
+      <c r="C110" s="45"/>
+      <c r="D110" s="45"/>
       <c r="E110" s="2" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B111" s="39"/>
-      <c r="C111" s="39"/>
-      <c r="D111" s="39"/>
+      <c r="B111" s="45"/>
+      <c r="C111" s="45"/>
+      <c r="D111" s="45"/>
       <c r="E111" s="2" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B112" s="39"/>
-      <c r="C112" s="39"/>
-      <c r="D112" s="39"/>
+      <c r="B112" s="45"/>
+      <c r="C112" s="45"/>
+      <c r="D112" s="45"/>
       <c r="E112" s="2" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B113" s="39"/>
-      <c r="C113" s="39"/>
-      <c r="D113" s="39"/>
+      <c r="B113" s="45"/>
+      <c r="C113" s="45"/>
+      <c r="D113" s="45"/>
       <c r="E113" s="2" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B114" s="39"/>
-      <c r="C114" s="38" t="s">
-        <v>450</v>
-      </c>
-      <c r="D114" s="39"/>
+      <c r="B114" s="45"/>
+      <c r="C114" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="D114" s="45"/>
       <c r="E114" s="2" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B115" s="39"/>
-      <c r="C115" s="39"/>
-      <c r="D115" s="39"/>
+      <c r="B115" s="45"/>
+      <c r="C115" s="45"/>
+      <c r="D115" s="45"/>
       <c r="E115" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B116" s="39"/>
-      <c r="C116" s="39"/>
-      <c r="D116" s="39"/>
+      <c r="B116" s="45"/>
+      <c r="C116" s="45"/>
+      <c r="D116" s="45"/>
       <c r="E116" s="2" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B117" s="39"/>
-      <c r="C117" s="39"/>
-      <c r="D117" s="39"/>
+      <c r="B117" s="45"/>
+      <c r="C117" s="45"/>
+      <c r="D117" s="45"/>
       <c r="E117" s="2" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B118" s="39"/>
-      <c r="C118" s="39"/>
-      <c r="D118" s="39"/>
+      <c r="B118" s="45"/>
+      <c r="C118" s="45"/>
+      <c r="D118" s="45"/>
       <c r="E118" s="2" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B119" s="39"/>
-      <c r="C119" s="39"/>
-      <c r="D119" s="39"/>
+      <c r="B119" s="45"/>
+      <c r="C119" s="45"/>
+      <c r="D119" s="45"/>
       <c r="E119" s="2" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B120" s="39"/>
-      <c r="C120" s="39"/>
-      <c r="D120" s="39"/>
+      <c r="B120" s="45"/>
+      <c r="C120" s="45"/>
+      <c r="D120" s="45"/>
       <c r="E120" s="2" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B121" s="39"/>
-      <c r="C121" s="39"/>
-      <c r="D121" s="39"/>
+      <c r="B121" s="45"/>
+      <c r="C121" s="45"/>
+      <c r="D121" s="45"/>
       <c r="E121" s="2" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B122" s="39"/>
-      <c r="C122" s="39"/>
-      <c r="D122" s="39"/>
+      <c r="B122" s="45"/>
+      <c r="C122" s="45"/>
+      <c r="D122" s="45"/>
       <c r="E122" s="2" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B123" s="39"/>
-      <c r="C123" s="39"/>
-      <c r="D123" s="39"/>
+      <c r="B123" s="45"/>
+      <c r="C123" s="45"/>
+      <c r="D123" s="45"/>
       <c r="E123" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B124" s="39"/>
-      <c r="C124" s="38" t="s">
-        <v>451</v>
-      </c>
-      <c r="D124" s="39"/>
+      <c r="B124" s="45"/>
+      <c r="C124" s="44" t="s">
+        <v>443</v>
+      </c>
+      <c r="D124" s="45"/>
       <c r="E124" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B125" s="39"/>
-      <c r="C125" s="39"/>
-      <c r="D125" s="39"/>
+      <c r="B125" s="45"/>
+      <c r="C125" s="45"/>
+      <c r="D125" s="45"/>
       <c r="E125" s="2" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B126" s="39"/>
-      <c r="C126" s="39"/>
-      <c r="D126" s="39"/>
+      <c r="B126" s="45"/>
+      <c r="C126" s="45"/>
+      <c r="D126" s="45"/>
       <c r="E126" s="2" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B127" s="39"/>
-      <c r="C127" s="39"/>
-      <c r="D127" s="39"/>
+      <c r="B127" s="45"/>
+      <c r="C127" s="45"/>
+      <c r="D127" s="45"/>
       <c r="E127" s="2" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B128" s="39"/>
-      <c r="C128" s="39"/>
-      <c r="D128" s="39"/>
+      <c r="B128" s="45"/>
+      <c r="C128" s="45"/>
+      <c r="D128" s="45"/>
       <c r="E128" s="2" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B129" s="39"/>
-      <c r="C129" s="39"/>
-      <c r="D129" s="39"/>
+      <c r="B129" s="45"/>
+      <c r="C129" s="45"/>
+      <c r="D129" s="45"/>
       <c r="E129" s="2" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B130" s="39"/>
-      <c r="C130" s="39"/>
-      <c r="D130" s="39"/>
+      <c r="B130" s="45"/>
+      <c r="C130" s="45"/>
+      <c r="D130" s="45"/>
       <c r="E130" s="2" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B131" s="39"/>
-      <c r="C131" s="39"/>
-      <c r="D131" s="39"/>
+      <c r="B131" s="45"/>
+      <c r="C131" s="45"/>
+      <c r="D131" s="45"/>
       <c r="E131" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B132" s="39"/>
-      <c r="C132" s="39"/>
-      <c r="D132" s="39"/>
+      <c r="B132" s="45"/>
+      <c r="C132" s="45"/>
+      <c r="D132" s="45"/>
       <c r="E132" s="2" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B133" s="39"/>
-      <c r="C133" s="39"/>
-      <c r="D133" s="39"/>
+      <c r="B133" s="45"/>
+      <c r="C133" s="45"/>
+      <c r="D133" s="45"/>
       <c r="E133" s="2" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B134" s="39"/>
-      <c r="C134" s="38" t="s">
-        <v>452</v>
-      </c>
-      <c r="D134" s="39"/>
+      <c r="B134" s="45"/>
+      <c r="C134" s="44" t="s">
+        <v>444</v>
+      </c>
+      <c r="D134" s="45"/>
       <c r="E134" s="2" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B135" s="39"/>
-      <c r="C135" s="39"/>
-      <c r="D135" s="39"/>
+      <c r="B135" s="45"/>
+      <c r="C135" s="45"/>
+      <c r="D135" s="45"/>
       <c r="E135" s="2" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B136" s="39"/>
-      <c r="C136" s="39"/>
-      <c r="D136" s="39"/>
+      <c r="B136" s="45"/>
+      <c r="C136" s="45"/>
+      <c r="D136" s="45"/>
       <c r="E136" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B137" s="39"/>
-      <c r="C137" s="39"/>
-      <c r="D137" s="39"/>
+      <c r="B137" s="45"/>
+      <c r="C137" s="45"/>
+      <c r="D137" s="45"/>
       <c r="E137" s="2" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B138" s="39"/>
-      <c r="C138" s="39"/>
-      <c r="D138" s="39"/>
+      <c r="B138" s="45"/>
+      <c r="C138" s="45"/>
+      <c r="D138" s="45"/>
       <c r="E138" s="2" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B139" s="39"/>
-      <c r="C139" s="39"/>
-      <c r="D139" s="39"/>
+      <c r="B139" s="45"/>
+      <c r="C139" s="45"/>
+      <c r="D139" s="45"/>
       <c r="E139" s="2" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B140" s="39"/>
-      <c r="C140" s="39"/>
-      <c r="D140" s="39"/>
+      <c r="B140" s="45"/>
+      <c r="C140" s="45"/>
+      <c r="D140" s="45"/>
       <c r="E140" s="2" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B141" s="39"/>
-      <c r="C141" s="39"/>
-      <c r="D141" s="39"/>
+      <c r="B141" s="45"/>
+      <c r="C141" s="45"/>
+      <c r="D141" s="45"/>
       <c r="E141" s="2" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B142" s="39"/>
-      <c r="C142" s="39"/>
-      <c r="D142" s="39"/>
+      <c r="B142" s="45"/>
+      <c r="C142" s="45"/>
+      <c r="D142" s="45"/>
       <c r="E142" s="2" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B143" s="39"/>
-      <c r="C143" s="39"/>
-      <c r="D143" s="39"/>
+      <c r="B143" s="45"/>
+      <c r="C143" s="45"/>
+      <c r="D143" s="45"/>
       <c r="E143" s="2" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B144" s="39"/>
-      <c r="C144" s="38" t="s">
-        <v>453</v>
-      </c>
-      <c r="D144" s="39"/>
+      <c r="B144" s="45"/>
+      <c r="C144" s="44" t="s">
+        <v>445</v>
+      </c>
+      <c r="D144" s="45"/>
       <c r="E144" s="2" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B145" s="39"/>
-      <c r="C145" s="39"/>
-      <c r="D145" s="39"/>
+      <c r="B145" s="45"/>
+      <c r="C145" s="45"/>
+      <c r="D145" s="45"/>
       <c r="E145" s="2" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B146" s="39"/>
-      <c r="C146" s="39"/>
-      <c r="D146" s="39"/>
+      <c r="B146" s="45"/>
+      <c r="C146" s="45"/>
+      <c r="D146" s="45"/>
       <c r="E146" s="2" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B147" s="39"/>
-      <c r="C147" s="39"/>
-      <c r="D147" s="39"/>
+      <c r="B147" s="45"/>
+      <c r="C147" s="45"/>
+      <c r="D147" s="45"/>
       <c r="E147" s="2" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B148" s="39"/>
-      <c r="C148" s="39"/>
-      <c r="D148" s="39"/>
+      <c r="B148" s="45"/>
+      <c r="C148" s="45"/>
+      <c r="D148" s="45"/>
       <c r="E148" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B149" s="39"/>
-      <c r="C149" s="39"/>
-      <c r="D149" s="39"/>
+      <c r="B149" s="45"/>
+      <c r="C149" s="45"/>
+      <c r="D149" s="45"/>
       <c r="E149" s="2" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B150" s="39"/>
-      <c r="C150" s="39"/>
-      <c r="D150" s="39"/>
+      <c r="B150" s="45"/>
+      <c r="C150" s="45"/>
+      <c r="D150" s="45"/>
       <c r="E150" s="2" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B151" s="39"/>
-      <c r="C151" s="39"/>
-      <c r="D151" s="39"/>
+      <c r="B151" s="45"/>
+      <c r="C151" s="45"/>
+      <c r="D151" s="45"/>
       <c r="E151" s="2" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B152" s="39"/>
-      <c r="C152" s="39"/>
-      <c r="D152" s="39"/>
+      <c r="B152" s="45"/>
+      <c r="C152" s="45"/>
+      <c r="D152" s="45"/>
       <c r="E152" s="2" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B153" s="39"/>
-      <c r="C153" s="38" t="s">
-        <v>454</v>
-      </c>
-      <c r="D153" s="39"/>
+      <c r="B153" s="45"/>
+      <c r="C153" s="44" t="s">
+        <v>446</v>
+      </c>
+      <c r="D153" s="45"/>
       <c r="E153" s="2" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B154" s="39"/>
-      <c r="C154" s="39"/>
-      <c r="D154" s="39"/>
+      <c r="B154" s="45"/>
+      <c r="C154" s="45"/>
+      <c r="D154" s="45"/>
       <c r="E154" s="2" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B155" s="39"/>
-      <c r="C155" s="39"/>
-      <c r="D155" s="39"/>
+      <c r="B155" s="45"/>
+      <c r="C155" s="45"/>
+      <c r="D155" s="45"/>
       <c r="E155" s="2" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B156" s="39"/>
-      <c r="C156" s="39"/>
-      <c r="D156" s="39"/>
+      <c r="B156" s="45"/>
+      <c r="C156" s="45"/>
+      <c r="D156" s="45"/>
       <c r="E156" s="2" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B157" s="39"/>
-      <c r="C157" s="39"/>
-      <c r="D157" s="39"/>
+      <c r="B157" s="45"/>
+      <c r="C157" s="45"/>
+      <c r="D157" s="45"/>
       <c r="E157" s="2" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="158" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B158" s="39"/>
-      <c r="C158" s="39"/>
-      <c r="D158" s="39"/>
+      <c r="B158" s="45"/>
+      <c r="C158" s="45"/>
+      <c r="D158" s="45"/>
       <c r="E158" s="2" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B159" s="39"/>
-      <c r="C159" s="39"/>
-      <c r="D159" s="39"/>
+      <c r="B159" s="45"/>
+      <c r="C159" s="45"/>
+      <c r="D159" s="45"/>
       <c r="E159" s="2" t="s">
         <v>205</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C10:D10"/>
     <mergeCell ref="B11:B159"/>
     <mergeCell ref="C11:C30"/>
     <mergeCell ref="C114:D123"/>
@@ -6246,6 +6281,7 @@
     <mergeCell ref="D31:D43"/>
     <mergeCell ref="D59:D68"/>
     <mergeCell ref="C31:C58"/>
+    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6257,10 +6293,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404F557D-9777-4DAC-A8B5-33F7D51AC88E}">
-  <dimension ref="A5:F53"/>
+  <dimension ref="A5:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="F41" sqref="C5:F48"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6273,544 +6309,384 @@
     <col min="6" max="6" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="18" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="D5" s="17" t="s">
+      <c r="C5" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="8" t="s">
+      <c r="E5" s="19"/>
+      <c r="F5" s="20" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="C6" s="35" t="s">
-        <v>416</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="E6" s="39"/>
+      <c r="C6" s="44" t="s">
+        <v>409</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>454</v>
+      </c>
+      <c r="E6" s="45"/>
       <c r="F6" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="8" t="s">
+    <row r="7" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="8" t="s">
+    <row r="8" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B8" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
       <c r="F8" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="8" t="s">
+    <row r="9" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B9" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="8" t="s">
+    <row r="10" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B10" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="8" t="s">
+    <row r="11" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B11" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
       <c r="F11" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8" t="s">
+    <row r="12" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
       <c r="F12" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="8" t="s">
+    <row r="13" spans="2:6" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="8" t="s">
+    <row r="14" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
       <c r="F14" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="9" t="s">
+    <row r="15" spans="2:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
       <c r="F15" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="9" t="s">
+    <row r="16" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="38" t="s">
-        <v>465</v>
-      </c>
-      <c r="E16" s="39" t="s">
-        <v>298</v>
-      </c>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44" t="s">
+        <v>457</v>
+      </c>
+      <c r="E16" s="44"/>
       <c r="F16" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="8" t="s">
+    <row r="17" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B17" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="8" t="s">
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" s="9" t="s">
+    </row>
+    <row r="20" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="8"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="8"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="8"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44" t="s">
+        <v>458</v>
+      </c>
+      <c r="E22" s="44"/>
+      <c r="F22" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="8"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="8"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="8"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="8"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>305</v>
+      </c>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44" t="s">
+        <v>455</v>
+      </c>
+      <c r="E27" s="45"/>
+      <c r="F27" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39" t="s">
-        <v>305</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="2" t="s">
+    </row>
+    <row r="28" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B28" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C28" s="44"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B29" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C29" s="44"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B30" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C30" s="44"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B31" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C31" s="44"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B32" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C32" s="44"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A33"/>
+      <c r="B33" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="C33" s="44"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="38" t="s">
-        <v>466</v>
-      </c>
-      <c r="E22" s="39" t="s">
-        <v>306</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39" t="s">
-        <v>307</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
-      <c r="B27" t="s">
-        <v>311</v>
-      </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="38" t="s">
-        <v>463</v>
-      </c>
-      <c r="E27" s="39"/>
-      <c r="F27" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
-      <c r="B28" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
-      <c r="B29" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
-      <c r="B30" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
-      <c r="B31" s="8" t="s">
+      <c r="E34" s="44"/>
+      <c r="F34" s="50" t="s">
+        <v>571</v>
+      </c>
+      <c r="G34" s="35"/>
+    </row>
+    <row r="35" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B35" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
-      <c r="B32" s="8" t="s">
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="36" t="s">
+        <v>572</v>
+      </c>
+      <c r="G35" s="35"/>
+    </row>
+    <row r="36" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B36" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="G36" s="35"/>
+    </row>
+    <row r="37" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B37" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="6"/>
-      <c r="B33" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
-      <c r="B34" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="38" t="s">
-        <v>464</v>
-      </c>
-      <c r="E34" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="F34" s="39" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
-      <c r="B35" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="C35" s="36"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-    </row>
-    <row r="36" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
-      <c r="B36" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="C36" s="36"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-    </row>
-    <row r="37" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
-      <c r="B37" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="C37" s="36"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="F41" s="39" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="2"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="31"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="2"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="31"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="2"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="31"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="36" t="s">
+        <v>574</v>
+      </c>
+      <c r="G37" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="C6:C48"/>
-    <mergeCell ref="F41:F48"/>
-    <mergeCell ref="F34:F40"/>
-    <mergeCell ref="D34:D48"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="D22:D26"/>
+  <mergeCells count="6">
+    <mergeCell ref="D22:E26"/>
+    <mergeCell ref="D16:E21"/>
+    <mergeCell ref="C6:C37"/>
     <mergeCell ref="D6:E15"/>
-    <mergeCell ref="E16:E19"/>
     <mergeCell ref="D27:E33"/>
-    <mergeCell ref="E34:E40"/>
-    <mergeCell ref="E41:E48"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="D34:E37"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6825,8 +6701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF25547-C823-4F33-AC6F-F43AC603D32A}">
   <dimension ref="B5:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6837,225 +6713,225 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>424</v>
+      <c r="D5" s="20" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="35" t="s">
-        <v>418</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>467</v>
+      <c r="B6" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>576</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B7" s="42"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="42"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B9" s="42"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B10" s="42"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B11" s="42"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B12" s="42"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="36"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="2" t="s">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B13" s="42"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="36"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="2" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="42"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="36"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="2" t="s">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B15" s="42"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="36"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="2" t="s">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B16" s="42"/>
+      <c r="C16" s="44" t="s">
+        <v>577</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="36"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="2" t="s">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B17" s="42"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="2" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="36"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="2" t="s">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B18" s="42"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="36"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="2" t="s">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B19" s="42"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="36"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="2" t="s">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B20" s="42"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="36"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="2" t="s">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B21" s="42"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="2" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="36"/>
-      <c r="C16" s="38" t="s">
-        <v>468</v>
-      </c>
-      <c r="D16" s="2" t="s">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B22" s="42"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B17" s="36"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="2" t="s">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B23" s="42"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B18" s="36"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="2" t="s">
+    <row r="24" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="42"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="2" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B19" s="36"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B20" s="36"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B21" s="36"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B22" s="36"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B23" s="36"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="36"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
     <row r="25" spans="2:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="36"/>
-      <c r="C25" s="35" t="s">
-        <v>571</v>
+      <c r="B25" s="42"/>
+      <c r="C25" s="41" t="s">
+        <v>575</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="I25" s="44"/>
-      <c r="J25" s="45" t="s">
-        <v>569</v>
-      </c>
-      <c r="K25" s="46" t="s">
-        <v>570</v>
+        <v>533</v>
+      </c>
+      <c r="I25" s="29"/>
+      <c r="J25" s="30" t="s">
+        <v>542</v>
+      </c>
+      <c r="K25" s="31" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B26" s="36"/>
-      <c r="C26" s="33"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="2" t="s">
-        <v>561</v>
+        <v>534</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B27" s="36"/>
-      <c r="C27" s="33"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="2" t="s">
-        <v>562</v>
+        <v>535</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B28" s="36"/>
-      <c r="C28" s="33"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="39"/>
       <c r="D28" s="2" t="s">
-        <v>563</v>
+        <v>536</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B29" s="36"/>
-      <c r="C29" s="33"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="2" t="s">
-        <v>564</v>
+        <v>537</v>
       </c>
     </row>
     <row r="30" spans="2:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="36"/>
-      <c r="C30" s="33"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="2" t="s">
-        <v>565</v>
+        <v>538</v>
       </c>
     </row>
     <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="36"/>
-      <c r="C31" s="33"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="39"/>
       <c r="D31" s="2" t="s">
-        <v>566</v>
+        <v>539</v>
       </c>
     </row>
     <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="36"/>
-      <c r="C32" s="33"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="39"/>
       <c r="D32" s="2" t="s">
-        <v>567</v>
+        <v>540</v>
       </c>
     </row>
     <row r="33" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="37"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="40"/>
       <c r="D33" s="2" t="s">
-        <v>568</v>
+        <v>541</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
@@ -7134,190 +7010,190 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>424</v>
+      <c r="D2" s="20" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="32" t="s">
-        <v>411</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>474</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="38" t="s">
+        <v>405</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>464</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="11" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="14" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="11" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="14" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B11" s="39"/>
+      <c r="C11" s="41" t="s">
+        <v>465</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="12" t="s">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="11" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="12" t="s">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="11" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="12" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="14" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="14" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B16" s="39"/>
+      <c r="C16" s="41" t="s">
+        <v>463</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="12" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="11" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="15" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="12" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="11" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="33"/>
-      <c r="C11" s="35" t="s">
-        <v>475</v>
-      </c>
-      <c r="D11" s="12" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="11" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="12" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="11" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="12" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="11" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="15" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="15" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="33"/>
-      <c r="C16" s="35" t="s">
-        <v>473</v>
-      </c>
-      <c r="D16" s="12" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="11" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="12" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="11" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="12" t="s">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="11" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="12" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="11" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="12" t="s">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="11" t="s">
         <v>360</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="12" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="12" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="12" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="12" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="12" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="12" t="s">
-        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -7340,7 +7216,7 @@
   <dimension ref="B1:F31"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D31"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7351,11 +7227,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="3" spans="2:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1" t="s">
@@ -7363,204 +7239,204 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>424</v>
+      <c r="D5" s="20" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="39" t="s">
-        <v>419</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>476</v>
+      <c r="B6" s="45" t="s">
+        <v>412</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>578</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
     <row r="13" spans="2:6" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="39"/>
-      <c r="C13" s="38" t="s">
-        <v>573</v>
+      <c r="B13" s="45"/>
+      <c r="C13" s="44" t="s">
+        <v>579</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>574</v>
+        <v>544</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="39"/>
-      <c r="C14" s="38"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="2" t="s">
-        <v>576</v>
+        <v>546</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="39"/>
-      <c r="C15" s="38"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="2" t="s">
-        <v>579</v>
+        <v>549</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="39"/>
-      <c r="C16" s="38"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="2" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="39"/>
-      <c r="C17" s="38"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="2" t="s">
-        <v>588</v>
+        <v>558</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="39"/>
-      <c r="C18" s="38"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="2" t="s">
-        <v>589</v>
+        <v>559</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="39"/>
-      <c r="C19" s="38"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="2" t="s">
-        <v>590</v>
+        <v>560</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="39"/>
-      <c r="C20" s="38"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="2" t="s">
-        <v>591</v>
+        <v>561</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="39"/>
-      <c r="C21" s="38"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="2" t="s">
-        <v>592</v>
+        <v>562</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="39"/>
-      <c r="C22" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="D22" s="47" t="s">
-        <v>575</v>
+      <c r="B22" s="45"/>
+      <c r="C22" s="44" t="s">
+        <v>580</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="39"/>
-      <c r="C23" s="38"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="44"/>
       <c r="D23" s="2" t="s">
-        <v>577</v>
+        <v>547</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="39"/>
-      <c r="C24" s="38"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="44"/>
       <c r="D24" s="2" t="s">
-        <v>578</v>
+        <v>548</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="39"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="48" t="s">
-        <v>580</v>
+      <c r="B25" s="45"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="2" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="39"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="48" t="s">
-        <v>582</v>
+      <c r="B26" s="45"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="2" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="39"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="48" t="s">
-        <v>583</v>
+      <c r="B27" s="45"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="2" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="39"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="48" t="s">
-        <v>584</v>
+      <c r="B28" s="45"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="2" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="39"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="48" t="s">
-        <v>585</v>
+      <c r="B29" s="45"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="2" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="39"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="48" t="s">
-        <v>586</v>
+      <c r="B30" s="45"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="2" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="39"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="48" t="s">
-        <v>587</v>
+      <c r="B31" s="45"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="2" t="s">
+        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -7582,7 +7458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{943D7610-2A45-41A6-AEBD-0B6D0CE43DFE}">
   <dimension ref="B6:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:D41"/>
     </sheetView>
   </sheetViews>
@@ -7594,269 +7470,269 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>424</v>
+      <c r="D6" s="20" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="38" t="s">
-        <v>477</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>480</v>
+      <c r="B7" s="44" t="s">
+        <v>466</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>469</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="2" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="2" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="2" t="s">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B16" s="45"/>
+      <c r="C16" s="44" t="s">
+        <v>470</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="2" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="2" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="2" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="2" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="2" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="2" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="2" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="2" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="45"/>
+      <c r="C22" s="44" t="s">
+        <v>471</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="4" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="39"/>
-      <c r="C16" s="38" t="s">
-        <v>481</v>
-      </c>
-      <c r="D16" s="2" t="s">
+    <row r="23" spans="2:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="2" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="2" t="s">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="2" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="2" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="2" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="2" t="s">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="2" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="2" t="s">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="2" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="4" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="39"/>
-      <c r="C22" s="38" t="s">
-        <v>482</v>
-      </c>
-      <c r="D22" s="2" t="s">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="2" t="s">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="2" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="2" t="s">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="2" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="2" t="s">
+    <row r="31" spans="2:4" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="2" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="2" t="s">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B32" s="45"/>
+      <c r="C32" s="44" t="s">
+        <v>472</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="2" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="2" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="2" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="2" t="s">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="2" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="2" t="s">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="2" t="s">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B32" s="39"/>
-      <c r="C32" s="38" t="s">
-        <v>483</v>
-      </c>
-      <c r="D32" s="2" t="s">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="2" t="s">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="2" t="s">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="2" t="s">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="2" t="s">
         <v>400</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="2" t="s">
-        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -7877,10 +7753,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75409A8D-CEEC-44C5-8836-03B2BE4112D6}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7892,203 +7768,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="B2" s="23">
+        <v>3</v>
+      </c>
+      <c r="C2" s="22">
+        <v>24</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>475</v>
+      </c>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="B3" s="23">
+        <v>4</v>
+      </c>
+      <c r="C3" s="22">
+        <v>35</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="B4" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="C4" s="25">
+        <v>114</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>583</v>
+      </c>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="21" t="s">
         <v>409</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="B5" s="28">
+        <v>5</v>
+      </c>
+      <c r="C5" s="25">
+        <v>37</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>585</v>
+      </c>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="21" t="s">
         <v>410</v>
       </c>
-      <c r="E1" s="23"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+      <c r="B6" s="23">
+        <v>8</v>
+      </c>
+      <c r="C6" s="22">
+        <v>65</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B7" s="23">
         <v>3</v>
       </c>
-      <c r="C2" s="23">
-        <v>24</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>490</v>
-      </c>
-      <c r="E2" s="23"/>
-    </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="25" t="s">
+      <c r="C7" s="22">
+        <v>28</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>582</v>
+      </c>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="B3" s="24">
-        <v>4</v>
-      </c>
-      <c r="C3" s="23">
-        <v>35</v>
-      </c>
-      <c r="D3" s="23" t="s">
+      <c r="B8" s="23">
+        <v>3</v>
+      </c>
+      <c r="C8" s="25">
+        <v>26</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>581</v>
+      </c>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="B9" s="23">
+        <v>10</v>
+      </c>
+      <c r="C9" s="22">
+        <v>100</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>413</v>
       </c>
-      <c r="E3" s="23"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="26" t="s">
         <v>414</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>495</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>415</v>
-      </c>
-      <c r="E4" s="23"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
-        <v>416</v>
-      </c>
-      <c r="B5" s="30">
-        <v>5</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>547</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>548</v>
-      </c>
-      <c r="E5" s="23"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="22" t="s">
-        <v>417</v>
-      </c>
-      <c r="B6" s="24">
-        <v>8</v>
-      </c>
-      <c r="C6" s="23">
-        <v>64</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>486</v>
-      </c>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="22" t="s">
-        <v>418</v>
-      </c>
-      <c r="B7" s="24">
-        <v>2</v>
-      </c>
-      <c r="C7" s="23">
-        <v>19</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>489</v>
-      </c>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="B8" s="24">
-        <v>2</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>494</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>420</v>
-      </c>
-      <c r="E8" s="23"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="22" t="s">
-        <v>407</v>
-      </c>
-      <c r="B9" s="24">
-        <v>10</v>
-      </c>
-      <c r="C9" s="23">
-        <v>100</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>421</v>
-      </c>
-      <c r="E9" s="23"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="B10" s="28">
-        <v>48</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>549</v>
-      </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="23"/>
+      <c r="B10" s="27">
+        <v>50</v>
+      </c>
+      <c r="C10" s="27">
+        <v>429</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23" t="s">
-        <v>550</v>
-      </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>493</v>
-      </c>
+      <c r="A12" s="37"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8099,26 +7936,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98aa5c30-0ca6-4ff6-9f27-712b5f6a60fa">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="6eb2050a-b6f7-4b0c-983c-e4078fb34326" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010050B7A9603DF1A244B8132CE1C1B398A8" ma:contentTypeVersion="15" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="a440459976170ea38fb7eb2e040ba179">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98aa5c30-0ca6-4ff6-9f27-712b5f6a60fa" xmlns:ns3="6eb2050a-b6f7-4b0c-983c-e4078fb34326" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba382d81cd35db01624f0cbef7b1ab06" ns2:_="" ns3:_="">
     <xsd:import namespace="98aa5c30-0ca6-4ff6-9f27-712b5f6a60fa"/>
@@ -8353,32 +8170,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0005A226-8E27-4CCD-8501-04EB607E9F78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="6eb2050a-b6f7-4b0c-983c-e4078fb34326"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="98aa5c30-0ca6-4ff6-9f27-712b5f6a60fa"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98aa5c30-0ca6-4ff6-9f27-712b5f6a60fa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="6eb2050a-b6f7-4b0c-983c-e4078fb34326" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B133FF0C-9036-42CF-A0D0-12ED50A1E5CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5CA8F08-5604-491E-9806-A7FCFFD8F6BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8397,6 +8209,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0005A226-8E27-4CCD-8501-04EB607E9F78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="98aa5c30-0ca6-4ff6-9f27-712b5f6a60fa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6eb2050a-b6f7-4b0c-983c-e4078fb34326"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B133FF0C-9036-42CF-A0D0-12ED50A1E5CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{42f063bf-ce3a-473c-8609-3866002c85b0}" enabled="1" method="Standard" siteId="{b914a242-e718-443b-a47c-6b4c649d8c0a}" contentBits="0" removed="0"/>
